--- a/data/590_P_features_case.xlsx
+++ b/data/590_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,5770 +528,5042 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9923515913644799</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.586312805232286</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.001001314954506887</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01959879061914919</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.791129282167648e-07</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06021530210153484</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.293244771686961e-05</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001428280594961496</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6721101081688874</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.270770226918912e-05</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0003788662056723075</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.004268041038720586</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.042616988089466e-05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.303841606430162e-05</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001737275480364723</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.006352362701576421</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5338.383168220149</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0045151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9927214903019059</v>
+        <v>0.9923515913644799</v>
       </c>
       <c r="B3" t="n">
-        <v>16.58875400011244</v>
+        <v>8.586312805232286</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001528782456063042</v>
+        <v>-0.001001314954506887</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03781691775511403</v>
+        <v>0.01959879061914919</v>
       </c>
       <c r="E3" t="n">
-        <v>2.270495781710777e-06</v>
+        <v>-2.791129282167648e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0992031916343397</v>
+        <v>0.06021530210153484</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.003459203384045e-05</v>
+        <v>-1.293244771686961e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005269284637485167</v>
+        <v>0.001428280594961496</v>
       </c>
       <c r="I3" t="n">
-        <v>2.029495682614644</v>
+        <v>0.6721101081688874</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003254286141499222</v>
+        <v>9.270770226918912e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.001010929215599389</v>
+        <v>-0.0003788662056723075</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01637637472085606</v>
+        <v>-0.004268041038720586</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0001846758393038242</v>
+        <v>-4.042616988089466e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0001341304689932685</v>
+        <v>-7.303841606430162e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005656062660578926</v>
+        <v>0.001737275480364723</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.02099404015546548</v>
+        <v>-0.006352362701576421</v>
       </c>
       <c r="Q3" t="n">
-        <v>5456.508864115366</v>
+        <v>5338.383168220149</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0090302</v>
+        <v>0.0045151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9932083551357734</v>
+        <v>0.9927214903019059</v>
       </c>
       <c r="B4" t="n">
-        <v>23.33273543599258</v>
+        <v>16.58875400011244</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.002846025148239726</v>
+        <v>-0.001528782456063042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05177207727927887</v>
+        <v>0.03781691775511403</v>
       </c>
       <c r="E4" t="n">
-        <v>3.565302225204521e-06</v>
+        <v>2.270495781710777e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1122387051172205</v>
+        <v>0.0992031916343397</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.744312953665036e-06</v>
+        <v>-1.003459203384045e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007899346812134538</v>
+        <v>0.005269284637485167</v>
       </c>
       <c r="I4" t="n">
-        <v>3.063862758943798</v>
+        <v>2.029495682614644</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003955393129902735</v>
+        <v>0.0003254286141499222</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.001520373480533386</v>
+        <v>-0.001010929215599389</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0207831044866588</v>
+        <v>-0.01637637472085606</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0004083801491412964</v>
+        <v>-0.0001846758393038242</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0001640491914607035</v>
+        <v>-0.0001341304689932685</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008194189599204326</v>
+        <v>0.005656062660578926</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.03563793861746595</v>
+        <v>-0.02099404015546548</v>
       </c>
       <c r="Q4" t="n">
-        <v>5607.285511251805</v>
+        <v>5456.508864115366</v>
       </c>
       <c r="R4" t="n">
-        <v>0.013545</v>
+        <v>0.0090302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9936988981953112</v>
+        <v>0.9932083551357734</v>
       </c>
       <c r="B5" t="n">
-        <v>28.60432769063548</v>
+        <v>23.33273543599258</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.002054594432510373</v>
+        <v>-0.002846025148239726</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05909820453952454</v>
+        <v>0.05177207727927887</v>
       </c>
       <c r="E5" t="n">
-        <v>4.682472550723867e-06</v>
+        <v>3.565302225204521e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1030118927542587</v>
+        <v>0.1122387051172205</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.025516312706371e-06</v>
+        <v>-7.744312953665036e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01011379651245322</v>
+        <v>0.007899346812134538</v>
       </c>
       <c r="I5" t="n">
-        <v>3.300669232023389</v>
+        <v>3.063862758943798</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0004947892766045054</v>
+        <v>0.0003955393129902735</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.002611325088621887</v>
+        <v>-0.001520373480533386</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.012264180977427</v>
+        <v>-0.0207831044866588</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0006398548862646005</v>
+        <v>-0.0004083801491412964</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0002171591313465977</v>
+        <v>-0.0001640491914607035</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008087542031117088</v>
+        <v>0.008194189599204326</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.04420460055459775</v>
+        <v>-0.03563793861746595</v>
       </c>
       <c r="Q5" t="n">
-        <v>5754.520966691697</v>
+        <v>5607.285511251805</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01806</v>
+        <v>0.013545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9941751054140663</v>
+        <v>0.9936988981953112</v>
       </c>
       <c r="B6" t="n">
-        <v>32.88032000149922</v>
+        <v>28.60432769063548</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.001900111856945334</v>
+        <v>-0.002054594432510373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05918843695106276</v>
+        <v>0.05909820453952454</v>
       </c>
       <c r="E6" t="n">
-        <v>4.476429046399056e-06</v>
+        <v>4.682472550723867e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08929400706358576</v>
+        <v>0.1030118927542587</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.65160170214201e-07</v>
+        <v>-4.025516312706371e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01105482836901314</v>
+        <v>0.01011379651245322</v>
       </c>
       <c r="I6" t="n">
-        <v>3.159654817188584</v>
+        <v>3.300669232023389</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0005540065929753936</v>
+        <v>0.0004947892766045054</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.003344852123221964</v>
+        <v>-0.002611325088621887</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.00904048015446165</v>
+        <v>-0.012264180977427</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0007556998726971009</v>
+        <v>-0.0006398548862646005</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.000282308651757692</v>
+        <v>-0.0002171591313465977</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007760161339316581</v>
+        <v>0.008087542031117088</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.04574151050014804</v>
+        <v>-0.04420460055459775</v>
       </c>
       <c r="Q6" t="n">
-        <v>5891.995640553184</v>
+        <v>5754.520966691697</v>
       </c>
       <c r="R6" t="n">
-        <v>0.022934</v>
+        <v>0.01806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9945724391297015</v>
+        <v>0.9941751054140663</v>
       </c>
       <c r="B7" t="n">
-        <v>36.05945367590562</v>
+        <v>32.88032000149922</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00131247692990836</v>
+        <v>-0.001900111856945334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05295695633072094</v>
+        <v>0.05918843695106276</v>
       </c>
       <c r="E7" t="n">
-        <v>4.824332909340665e-06</v>
+        <v>4.476429046399056e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07401983648507338</v>
+        <v>0.08929400706358576</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.848445824698928e-06</v>
+        <v>-7.65160170214201e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01214926793733813</v>
+        <v>0.01105482836901314</v>
       </c>
       <c r="I7" t="n">
-        <v>2.799603569648244</v>
+        <v>3.159654817188584</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0004951046831989276</v>
+        <v>0.0005540065929753936</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.003744501300855887</v>
+        <v>-0.003344852123221964</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.001249479137694257</v>
+        <v>-0.00904048015446165</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0007883641059341092</v>
+        <v>-0.0007556998726971009</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0003601257689933131</v>
+        <v>-0.000282308651757692</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006542375691679278</v>
+        <v>0.007760161339316581</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.04241772060864264</v>
+        <v>-0.04574151050014804</v>
       </c>
       <c r="Q7" t="n">
-        <v>6003.806634582843</v>
+        <v>5891.995640553184</v>
       </c>
       <c r="R7" t="n">
-        <v>0.027807</v>
+        <v>0.022934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.994899919581717</v>
+        <v>0.9945724391297015</v>
       </c>
       <c r="B8" t="n">
-        <v>38.46943858998145</v>
+        <v>36.05945367590562</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0007124786235228349</v>
+        <v>-0.00131247692990836</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04293795074073836</v>
+        <v>0.05295695633072094</v>
       </c>
       <c r="E8" t="n">
-        <v>3.671694770487435e-06</v>
+        <v>4.824332909340665e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0608348616427728</v>
+        <v>0.07401983648507338</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.673117941426887e-06</v>
+        <v>-1.848445824698928e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0119683133497361</v>
+        <v>0.01214926793733813</v>
       </c>
       <c r="I8" t="n">
-        <v>2.398840832817976</v>
+        <v>2.799603569648244</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002731360838792378</v>
+        <v>0.0004951046831989276</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.004237013659976369</v>
+        <v>-0.003744501300855887</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00220112784646296</v>
+        <v>-0.001249479137694257</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0007629432660514981</v>
+        <v>-0.0007883641059341092</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0004265869172096962</v>
+        <v>-0.0003601257689933131</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005281320234568843</v>
+        <v>0.006542375691679278</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03789529333572758</v>
+        <v>-0.04241772060864264</v>
       </c>
       <c r="Q8" t="n">
-        <v>6093.927000792051</v>
+        <v>6003.806634582843</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03268</v>
+        <v>0.027807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9951701085849215</v>
+        <v>0.994899919581717</v>
       </c>
       <c r="B9" t="n">
-        <v>40.34615301999589</v>
+        <v>38.46943858998145</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0004955783828063578</v>
+        <v>-0.0007124786235228349</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0314381104282281</v>
+        <v>0.04293795074073836</v>
       </c>
       <c r="E9" t="n">
-        <v>3.724757593066757e-06</v>
+        <v>3.671694770487435e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0507602446247259</v>
+        <v>0.0608348616427728</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.586117226294144e-06</v>
+        <v>-5.673117941426887e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01182317873689909</v>
+        <v>0.0119683133497361</v>
       </c>
       <c r="I9" t="n">
-        <v>2.077360324581623</v>
+        <v>2.398840832817976</v>
       </c>
       <c r="J9" t="n">
-        <v>6.283158706227341e-05</v>
+        <v>0.0002731360838792378</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.004388295902724499</v>
+        <v>-0.004237013659976369</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01107208626396449</v>
+        <v>0.00220112784646296</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0007124083800816737</v>
+        <v>-0.0007629432660514981</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0004744343523925639</v>
+        <v>-0.0004265869172096962</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003874330190375967</v>
+        <v>0.005281320234568843</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03249164299365333</v>
+        <v>-0.03789529333572758</v>
       </c>
       <c r="Q9" t="n">
-        <v>6167.229141335474</v>
+        <v>6093.927000792051</v>
       </c>
       <c r="R9" t="n">
-        <v>0.037553</v>
+        <v>0.03268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9954125337831001</v>
+        <v>0.9951701085849215</v>
       </c>
       <c r="B10" t="n">
-        <v>41.94751510279043</v>
+        <v>40.34615301999589</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0002448990981289713</v>
+        <v>-0.0004955783828063578</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01970025349543224</v>
+        <v>0.0314381104282281</v>
       </c>
       <c r="E10" t="n">
-        <v>4.100124485646821e-06</v>
+        <v>3.724757593066757e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04211384348119412</v>
+        <v>0.0507602446247259</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.785168527238983e-06</v>
+        <v>-8.586117226294144e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01155230706550046</v>
+        <v>0.01182317873689909</v>
       </c>
       <c r="I10" t="n">
-        <v>1.753198968909878</v>
+        <v>2.077360324581623</v>
       </c>
       <c r="J10" t="n">
-        <v>6.126132002811022e-05</v>
+        <v>6.283158706227341e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.004482016869508791</v>
+        <v>-0.004388295902724499</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004225516041421039</v>
+        <v>0.01107208626396449</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0006337050754963439</v>
+        <v>-0.0007124083800816737</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0005039096081220516</v>
+        <v>-0.0004744343523925639</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002140935177019422</v>
+        <v>0.003874330190375967</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02747397344216375</v>
+        <v>-0.03249164299365333</v>
       </c>
       <c r="Q10" t="n">
-        <v>6231.794525727583</v>
+        <v>6167.229141335474</v>
       </c>
       <c r="R10" t="n">
-        <v>0.042805</v>
+        <v>0.037553</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9956166350480687</v>
+        <v>0.9954125337831001</v>
       </c>
       <c r="B11" t="n">
-        <v>43.2377355446862</v>
+        <v>41.94751510279043</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0001700668994371171</v>
+        <v>-0.0002448990981289713</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01039899236648451</v>
+        <v>0.01970025349543224</v>
       </c>
       <c r="E11" t="n">
-        <v>5.026249971944551e-06</v>
+        <v>4.100124485646821e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03591357389779051</v>
+        <v>0.04211384348119412</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.575248272491118e-07</v>
+        <v>-6.785168527238983e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01160159767819982</v>
+        <v>0.01155230706550046</v>
       </c>
       <c r="I11" t="n">
-        <v>1.527477062273945</v>
+        <v>1.753198968909878</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003595794417363617</v>
+        <v>6.126132002811022e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.004423214304852199</v>
+        <v>-0.004482016869508791</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005061862285663761</v>
+        <v>0.004225516041421039</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0005555585251837859</v>
+        <v>-0.0006337050754963439</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.000499911142246772</v>
+        <v>-0.0005039096081220516</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0007298681171747155</v>
+        <v>0.002140935177019422</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.02259439018232256</v>
+        <v>-0.02747397344216375</v>
       </c>
       <c r="Q11" t="n">
-        <v>6285.327636282626</v>
+        <v>6231.794525727583</v>
       </c>
       <c r="R11" t="n">
-        <v>0.048057</v>
+        <v>0.042805</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9957925568561308</v>
+        <v>0.9956166350480687</v>
       </c>
       <c r="B12" t="n">
-        <v>44.30799050617491</v>
+        <v>43.2377355446862</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0001515462553524124</v>
+        <v>-0.0001700668994371171</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004471478207825565</v>
+        <v>0.01039899236648451</v>
       </c>
       <c r="E12" t="n">
-        <v>5.117497477099207e-06</v>
+        <v>5.026249971944551e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03130309167819194</v>
+        <v>0.03591357389779051</v>
       </c>
       <c r="G12" t="n">
-        <v>4.178605081207612e-06</v>
+        <v>-8.575248272491118e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01079872820940535</v>
+        <v>0.01160159767819982</v>
       </c>
       <c r="I12" t="n">
-        <v>1.354153619684788</v>
+        <v>1.527477062273945</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0006589889874743727</v>
+        <v>0.0003595794417363617</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.004662580846735632</v>
+        <v>-0.004423214304852199</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004180763929827477</v>
+        <v>0.005061862285663761</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0004704535681149529</v>
+        <v>-0.0005555585251837859</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0004527757843616723</v>
+        <v>-0.000499911142246772</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0001134739128978842</v>
+        <v>0.0007298681171747155</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.0188010430264766</v>
+        <v>-0.02259439018232256</v>
       </c>
       <c r="Q12" t="n">
-        <v>6330.777700836082</v>
+        <v>6285.327636282626</v>
       </c>
       <c r="R12" t="n">
-        <v>0.053309</v>
+        <v>0.048057</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9959466137291282</v>
+        <v>0.9957925568561308</v>
       </c>
       <c r="B13" t="n">
-        <v>45.21773598133468</v>
+        <v>44.30799050617491</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0002032295741144271</v>
+        <v>-0.0001515462553524124</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001782449731604909</v>
+        <v>0.004471478207825565</v>
       </c>
       <c r="E13" t="n">
-        <v>5.885505520010119e-06</v>
+        <v>5.117497477099207e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0276257931017035</v>
+        <v>0.03130309167819194</v>
       </c>
       <c r="G13" t="n">
-        <v>2.81494098816461e-06</v>
+        <v>4.178605081207612e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01033997760232245</v>
+        <v>0.01079872820940535</v>
       </c>
       <c r="I13" t="n">
-        <v>1.221407271602856</v>
+        <v>1.354153619684788</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006186045758681061</v>
+        <v>0.0006589889874743727</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.004838713597739062</v>
+        <v>-0.004662580846735632</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007810819396924421</v>
+        <v>0.004180763929827477</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0003903029743017878</v>
+        <v>-0.0004704535681149529</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0003883000691852871</v>
+        <v>-0.0004527757843616723</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0003841747809523809</v>
+        <v>-0.0001134739128978842</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01542871804766552</v>
+        <v>-0.0188010430264766</v>
       </c>
       <c r="Q13" t="n">
-        <v>6370.171487239223</v>
+        <v>6330.777700836082</v>
       </c>
       <c r="R13" t="n">
-        <v>0.058561</v>
+        <v>0.053309</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9960943061561814</v>
+        <v>0.9959466137291282</v>
       </c>
       <c r="B14" t="n">
-        <v>46.05984083881487</v>
+        <v>45.21773598133468</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0002721237457135726</v>
+        <v>-0.0002032295741144271</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001648614833699517</v>
+        <v>0.001782449731604909</v>
       </c>
       <c r="E14" t="n">
-        <v>7.546264422809377e-06</v>
+        <v>5.885505520010119e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02463843585090234</v>
+        <v>0.0276257931017035</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.065485911823162e-07</v>
+        <v>2.81494098816461e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009795176414759578</v>
+        <v>0.01033997760232245</v>
       </c>
       <c r="I14" t="n">
-        <v>1.100123079027754</v>
+        <v>1.221407271602856</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00043411737842844</v>
+        <v>0.0006186045758681061</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.005101947228133319</v>
+        <v>-0.004838713597739062</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002480018120871187</v>
+        <v>0.007810819396924421</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0003323116228140552</v>
+        <v>-0.0003903029743017878</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0003217955905707239</v>
+        <v>-0.0003883000691852871</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0002584970003354885</v>
+        <v>-0.0003841747809523809</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.0126960600230779</v>
+        <v>-0.01542871804766552</v>
       </c>
       <c r="Q14" t="n">
-        <v>6407.256933251932</v>
+        <v>6370.171487239223</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06421200000000001</v>
+        <v>0.058561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9962268281329058</v>
+        <v>0.9960943061561814</v>
       </c>
       <c r="B15" t="n">
-        <v>46.79326788103671</v>
+        <v>46.05984083881487</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0003354272475302181</v>
+        <v>-0.0002721237457135726</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003754802837165718</v>
+        <v>0.001648614833699517</v>
       </c>
       <c r="E15" t="n">
-        <v>8.840043662695906e-06</v>
+        <v>7.546264422809377e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02236081961882274</v>
+        <v>0.02463843585090234</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.07226193254849e-06</v>
+        <v>-8.065485911823162e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>0.009548887097054377</v>
+        <v>0.009795176414759578</v>
       </c>
       <c r="I15" t="n">
-        <v>1.014584106632185</v>
+        <v>1.100123079027754</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0004586692425085734</v>
+        <v>0.00043411737842844</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.005332709277905561</v>
+        <v>-0.005101947228133319</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00263147116611008</v>
+        <v>0.002480018120871187</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0003384955587972675</v>
+        <v>-0.0003323116228140552</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0002625774384274994</v>
+        <v>-0.0003217955905707239</v>
       </c>
       <c r="O15" t="n">
-        <v>-6.556871164329757e-05</v>
+        <v>-0.0002584970003354885</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.0102468583978823</v>
+        <v>-0.0126960600230779</v>
       </c>
       <c r="Q15" t="n">
-        <v>6440.104815311051</v>
+        <v>6407.256933251932</v>
       </c>
       <c r="R15" t="n">
-        <v>0.06986199999999999</v>
+        <v>0.06421200000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9963479087198513</v>
+        <v>0.9962268281329058</v>
       </c>
       <c r="B16" t="n">
-        <v>47.44446373943517</v>
+        <v>46.79326788103671</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0003585298543351904</v>
+        <v>-0.0003354272475302181</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007928299066219519</v>
+        <v>0.003754802837165718</v>
       </c>
       <c r="E16" t="n">
-        <v>9.514039412535134e-06</v>
+        <v>8.840043662695906e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0205584931961545</v>
+        <v>0.02236081961882274</v>
       </c>
       <c r="G16" t="n">
-        <v>1.243149496151125e-06</v>
+        <v>-1.07226193254849e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.008777787655549521</v>
+        <v>0.009548887097054377</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9457430841251102</v>
+        <v>1.014584106632185</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006191550205734523</v>
+        <v>0.0004586692425085734</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.005738460161825944</v>
+        <v>-0.005332709277905561</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002065678298590544</v>
+        <v>0.00263147116611008</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0003995796436438222</v>
+        <v>-0.0003384955587972675</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0002048922500197897</v>
+        <v>-0.0002625774384274994</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0001634643472277882</v>
+        <v>-6.556871164329757e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.008559505248503687</v>
+        <v>-0.0102468583978823</v>
       </c>
       <c r="Q16" t="n">
-        <v>6469.714028320334</v>
+        <v>6440.104815311051</v>
       </c>
       <c r="R16" t="n">
-        <v>0.075513</v>
+        <v>0.06986199999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9964591861022094</v>
+        <v>0.9963479087198513</v>
       </c>
       <c r="B17" t="n">
-        <v>48.03189213095704</v>
+        <v>47.44446373943517</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0003579592511791386</v>
+        <v>-0.0003585298543351904</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0140198516550993</v>
+        <v>0.007928299066219519</v>
       </c>
       <c r="E17" t="n">
-        <v>1.044712867175969e-05</v>
+        <v>9.514039412535134e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01896725195344915</v>
+        <v>0.0205584931961545</v>
       </c>
       <c r="G17" t="n">
-        <v>2.382495361062555e-06</v>
+        <v>1.243149496151125e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.008310088696201028</v>
+        <v>0.008777787655549521</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8877441281272841</v>
+        <v>0.9457430841251102</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0007030342689908355</v>
+        <v>0.0006191550205734523</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.006050730850160548</v>
+        <v>-0.005738460161825944</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004705451805232588</v>
+        <v>0.002065678298590544</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0005098356524077771</v>
+        <v>-0.0003995796436438222</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0001444646972933374</v>
+        <v>-0.0002048922500197897</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0003362368973060284</v>
+        <v>0.0001634643472277882</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.007039219346624034</v>
+        <v>-0.008559505248503687</v>
       </c>
       <c r="Q17" t="n">
-        <v>6496.778501684995</v>
+        <v>6469.714028320334</v>
       </c>
       <c r="R17" t="n">
-        <v>0.081164</v>
+        <v>0.075513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.996570292933041</v>
+        <v>0.9964591861022094</v>
       </c>
       <c r="B18" t="n">
-        <v>48.60500843687338</v>
+        <v>48.03189213095704</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0003446874527268976</v>
+        <v>-0.0003579592511791386</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02209992416941661</v>
+        <v>0.0140198516550993</v>
       </c>
       <c r="E18" t="n">
-        <v>1.184482590462675e-05</v>
+        <v>1.044712867175969e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01757313353010626</v>
+        <v>0.01896725195344915</v>
       </c>
       <c r="G18" t="n">
-        <v>4.272755181123293e-06</v>
+        <v>2.382495361062555e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.007767773786824309</v>
+        <v>0.008310088696201028</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8302464100372934</v>
+        <v>0.8877441281272841</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0008365665936351642</v>
+        <v>0.0007030342689908355</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.006364892798758604</v>
+        <v>-0.006050730850160548</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001272853964057825</v>
+        <v>0.004705451805232588</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0006681418604258915</v>
+        <v>-0.0005098356524077771</v>
       </c>
       <c r="N18" t="n">
-        <v>-6.42732650460299e-05</v>
+        <v>-0.0001444646972933374</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0005705650795383893</v>
+        <v>0.0003362368973060284</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.005861433564324881</v>
+        <v>-0.007039219346624034</v>
       </c>
       <c r="Q18" t="n">
-        <v>6523.499378218104</v>
+        <v>6496.778501684995</v>
       </c>
       <c r="R18" t="n">
-        <v>0.087233</v>
+        <v>0.081164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9966734245235281</v>
+        <v>0.996570292933041</v>
       </c>
       <c r="B19" t="n">
-        <v>49.12972998631959</v>
+        <v>48.60500843687338</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0003150629936998913</v>
+        <v>-0.0003446874527268976</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0313908381406814</v>
+        <v>0.02209992416941661</v>
       </c>
       <c r="E19" t="n">
-        <v>1.275870056457413e-05</v>
+        <v>1.184482590462675e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01644705863315905</v>
+        <v>0.01757313353010626</v>
       </c>
       <c r="G19" t="n">
-        <v>4.972580322732326e-06</v>
+        <v>4.272755181123293e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.007478790288790813</v>
+        <v>0.007767773786824309</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7876769943591763</v>
+        <v>0.8302464100372934</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0009044085916806655</v>
+        <v>0.0008365665936351642</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.006606537776786416</v>
+        <v>-0.006364892798758604</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001580862544049714</v>
+        <v>0.001272853964057825</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0008338297065954009</v>
+        <v>-0.0006681418604258915</v>
       </c>
       <c r="N19" t="n">
-        <v>1.313260443010814e-05</v>
+        <v>-6.42732650460299e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>0.000675549658242799</v>
+        <v>0.0005705650795383893</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.004699870865352485</v>
+        <v>-0.005861433564324881</v>
       </c>
       <c r="Q19" t="n">
-        <v>6548.265815763605</v>
+        <v>6523.499378218104</v>
       </c>
       <c r="R19" t="n">
-        <v>0.093302</v>
+        <v>0.087233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9967703069657615</v>
+        <v>0.9966734245235281</v>
       </c>
       <c r="B20" t="n">
-        <v>49.61602123648356</v>
+        <v>49.12972998631959</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0002578675993141062</v>
+        <v>-0.0003150629936998913</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04139407382819026</v>
+        <v>0.0313908381406814</v>
       </c>
       <c r="E20" t="n">
-        <v>1.317224065422162e-05</v>
+        <v>1.275870056457413e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01549197545488278</v>
+        <v>0.01644705863315905</v>
       </c>
       <c r="G20" t="n">
-        <v>5.159953527019732e-06</v>
+        <v>4.972580322732326e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.006907128525444278</v>
+        <v>0.007478790288790813</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7508905487528346</v>
+        <v>0.7876769943591763</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0009342965675643258</v>
+        <v>0.0009044085916806655</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.006901622599215533</v>
+        <v>-0.006606537776786416</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001349709375673559</v>
+        <v>0.001580862544049714</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0009738890413461142</v>
+        <v>-0.0008338297065954009</v>
       </c>
       <c r="N20" t="n">
-        <v>6.882101756347145e-05</v>
+        <v>1.313260443010814e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0007873211552995077</v>
+        <v>0.000675549658242799</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.003940512718518844</v>
+        <v>-0.004699870865352485</v>
       </c>
       <c r="Q20" t="n">
-        <v>6571.478482488836</v>
+        <v>6548.265815763605</v>
       </c>
       <c r="R20" t="n">
-        <v>0.099371</v>
+        <v>0.093302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9968612085343227</v>
+        <v>0.9967703069657615</v>
       </c>
       <c r="B21" t="n">
-        <v>50.07146442907742</v>
+        <v>49.61602123648356</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0001954496655748583</v>
+        <v>-0.0002578675993141062</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05146818357199621</v>
+        <v>0.04139407382819026</v>
       </c>
       <c r="E21" t="n">
-        <v>1.33829347055067e-05</v>
+        <v>1.317224065422162e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01459163460988362</v>
+        <v>0.01549197545488278</v>
       </c>
       <c r="G21" t="n">
-        <v>3.629088789810413e-06</v>
+        <v>5.159953527019732e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006599446810135587</v>
+        <v>0.006907128525444278</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7169585922865013</v>
+        <v>0.7508905487528346</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0008656982293865934</v>
+        <v>0.0009342965675643258</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.00711546053333277</v>
+        <v>-0.006901622599215533</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003491295240695397</v>
+        <v>0.001349709375673559</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.001061548102785287</v>
+        <v>-0.0009738890413461142</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0001069271147186616</v>
+        <v>6.882101756347145e-05</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001011223904094507</v>
+        <v>0.0007873211552995077</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.003189669103851146</v>
+        <v>-0.003940512718518844</v>
       </c>
       <c r="Q21" t="n">
-        <v>6593.434590211853</v>
+        <v>6571.478482488836</v>
       </c>
       <c r="R21" t="n">
-        <v>0.10544</v>
+        <v>0.099371</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9969538174397031</v>
+        <v>0.9968612085343227</v>
       </c>
       <c r="B22" t="n">
-        <v>50.5306618916437</v>
+        <v>50.07146442907742</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0001571590443805783</v>
+        <v>-0.0001954496655748583</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06143119862333996</v>
+        <v>0.05146818357199621</v>
       </c>
       <c r="E22" t="n">
-        <v>1.387463378392984e-05</v>
+        <v>1.33829347055067e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01379527898127846</v>
+        <v>0.01459163460988362</v>
       </c>
       <c r="G22" t="n">
-        <v>1.507089604217244e-06</v>
+        <v>3.629088789810413e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.006271762454802458</v>
+        <v>0.006599446810135587</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6838955328423379</v>
+        <v>0.7169585922865013</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0007652556451194691</v>
+        <v>0.0008656982293865934</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.007327707316340398</v>
+        <v>-0.00711546053333277</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0009682327766804146</v>
+        <v>0.003491295240695397</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.001070783351511591</v>
+        <v>-0.001061548102785287</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0001245000394650775</v>
+        <v>0.0001069271147186616</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001314668775864695</v>
+        <v>0.001011223904094507</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.002674004895097322</v>
+        <v>-0.003189669103851146</v>
       </c>
       <c r="Q22" t="n">
-        <v>6615.769574292439</v>
+        <v>6593.434590211853</v>
       </c>
       <c r="R22" t="n">
-        <v>0.11195</v>
+        <v>0.10544</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9970414594029349</v>
+        <v>0.9969538174397031</v>
       </c>
       <c r="B23" t="n">
-        <v>50.96444713180038</v>
+        <v>50.5306618916437</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0001619803854706605</v>
+        <v>-0.0001571590443805783</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06932182965165885</v>
+        <v>0.06143119862333996</v>
       </c>
       <c r="E23" t="n">
-        <v>1.412857448596684e-05</v>
+        <v>1.387463378392984e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01316721335604655</v>
+        <v>0.01379527898127846</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.231226272086298e-07</v>
+        <v>1.507089604217244e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.006149386255815952</v>
+        <v>0.006271762454802458</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6602526085718033</v>
+        <v>0.6838955328423379</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000618659690455576</v>
+        <v>0.0007652556451194691</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.007478778804700438</v>
+        <v>-0.007327707316340398</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001211020550096663</v>
+        <v>0.0009682327766804146</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.001004205232116864</v>
+        <v>-0.001070783351511591</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0001277671243996214</v>
+        <v>0.0001245000394650775</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001727127721529417</v>
+        <v>0.001314668775864695</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.002092597475335391</v>
+        <v>-0.002674004895097322</v>
       </c>
       <c r="Q23" t="n">
-        <v>6637.075378721924</v>
+        <v>6615.769574292439</v>
       </c>
       <c r="R23" t="n">
-        <v>0.11845</v>
+        <v>0.11195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9971253472761006</v>
+        <v>0.9970414594029349</v>
       </c>
       <c r="B24" t="n">
-        <v>51.37683336144374</v>
+        <v>50.96444713180038</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0001779865358587724</v>
+        <v>-0.0001619803854706605</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07428443224937052</v>
+        <v>0.06932182965165885</v>
       </c>
       <c r="E24" t="n">
-        <v>1.416772198023559e-05</v>
+        <v>1.412857448596684e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01263429451576995</v>
+        <v>0.01316721335604655</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.340109635199856e-06</v>
+        <v>-6.231226272086298e-07</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005827364688336644</v>
+        <v>0.006149386255815952</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6400617947939506</v>
+        <v>0.6602526085718033</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003527183890526416</v>
+        <v>0.000618659690455576</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.007644994868652386</v>
+        <v>-0.007478778804700438</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001033746256654386</v>
+        <v>0.001211020550096663</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0008961563985052379</v>
+        <v>-0.001004205232116864</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0001021874806652686</v>
+        <v>0.0001277671243996214</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002089151521843717</v>
+        <v>0.001727127721529417</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.001767836172291636</v>
+        <v>-0.002092597475335391</v>
       </c>
       <c r="Q24" t="n">
-        <v>6657.520208512419</v>
+        <v>6637.075378721924</v>
       </c>
       <c r="R24" t="n">
-        <v>0.12496</v>
+        <v>0.11845</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9972055197503795</v>
+        <v>0.9971253472761006</v>
       </c>
       <c r="B25" t="n">
-        <v>51.77091421637526</v>
+        <v>51.37683336144374</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0001921544320204663</v>
+        <v>-0.0001779865358587724</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0762729166123189</v>
+        <v>0.07428443224937052</v>
       </c>
       <c r="E25" t="n">
-        <v>1.40502050510437e-05</v>
+        <v>1.416772198023559e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01210831374262102</v>
+        <v>0.01263429451576995</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.756683430855108e-06</v>
+        <v>-4.340109635199856e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005649106457771119</v>
+        <v>0.005827364688336644</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6204263108824798</v>
+        <v>0.6400617947939506</v>
       </c>
       <c r="J25" t="n">
-        <v>3.169976679072781e-05</v>
+        <v>0.0003527183890526416</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.007729616062128874</v>
+        <v>-0.007644994868652386</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00274984310747497</v>
+        <v>0.001033746256654386</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0007688968497779876</v>
+        <v>-0.0008961563985052379</v>
       </c>
       <c r="N25" t="n">
-        <v>5.527069780076066e-05</v>
+        <v>0.0001021874806652686</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002182224936757651</v>
+        <v>0.002089151521843717</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.001392532497289951</v>
+        <v>-0.001767836172291636</v>
       </c>
       <c r="Q25" t="n">
-        <v>6677.221138834684</v>
+        <v>6657.520208512419</v>
       </c>
       <c r="R25" t="n">
-        <v>0.13147</v>
+        <v>0.12496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9972883566200035</v>
+        <v>0.9972055197503795</v>
       </c>
       <c r="B26" t="n">
-        <v>52.17411221678753</v>
+        <v>51.77091421637526</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0001895375217166094</v>
+        <v>-0.0001921544320204663</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07559337917933423</v>
+        <v>0.0762729166123189</v>
       </c>
       <c r="E26" t="n">
-        <v>1.42613922494849e-05</v>
+        <v>1.40502050510437e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01160756695699106</v>
+        <v>0.01210831374262102</v>
       </c>
       <c r="G26" t="n">
-        <v>-9.685975254113679e-06</v>
+        <v>-8.756683430855108e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.005418521581495613</v>
+        <v>0.005649106457771119</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5996921648020089</v>
+        <v>0.6204263108824798</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.7285977482431e-05</v>
+        <v>3.169976679072781e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.007785106067845056</v>
+        <v>-0.007729616062128874</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00075567021090327</v>
+        <v>0.00274984310747497</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.000645881837248436</v>
+        <v>-0.0007688968497779876</v>
       </c>
       <c r="N26" t="n">
-        <v>2.182312795060095e-06</v>
+        <v>5.527069780076066e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002011609928572402</v>
+        <v>0.002182224936757651</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.001164672615092543</v>
+        <v>-0.001392532497289951</v>
       </c>
       <c r="Q26" t="n">
-        <v>6697.525337413067</v>
+        <v>6677.221138834684</v>
       </c>
       <c r="R26" t="n">
-        <v>0.13843</v>
+        <v>0.13147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9973677189407993</v>
+        <v>0.9972883566200035</v>
       </c>
       <c r="B27" t="n">
-        <v>52.56019811472797</v>
+        <v>52.17411221678753</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0001778343684406238</v>
+        <v>-0.0001895375217166094</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07276839034215779</v>
+        <v>0.07559337917933423</v>
       </c>
       <c r="E27" t="n">
-        <v>1.424257976500928e-05</v>
+        <v>1.42613922494849e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01120079833226514</v>
+        <v>0.01160756695699106</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.112329422344427e-06</v>
+        <v>-9.685975254113679e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>0.005330093902010588</v>
+        <v>0.005418521581495613</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5842613925151329</v>
+        <v>0.5996921648020089</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.841582972845378e-05</v>
+        <v>-9.7285977482431e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.00779220638021926</v>
+        <v>-0.007785106067845056</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0009875724299125278</v>
+        <v>0.00075567021090327</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0005465838289667735</v>
+        <v>-0.000645881837248436</v>
       </c>
       <c r="N27" t="n">
-        <v>-4.266527650743952e-05</v>
+        <v>2.182312795060095e-06</v>
       </c>
       <c r="O27" t="n">
-        <v>0.00176298607347685</v>
+        <v>0.002011609928572402</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.0008533063023172442</v>
+        <v>-0.001164672615092543</v>
       </c>
       <c r="Q27" t="n">
-        <v>6717.117605631975</v>
+        <v>6697.525337413067</v>
       </c>
       <c r="R27" t="n">
-        <v>0.14539</v>
+        <v>0.13843</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9974443913644798</v>
+        <v>0.9973677189407993</v>
       </c>
       <c r="B28" t="n">
-        <v>52.93130605498397</v>
+        <v>52.56019811472797</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0001564178301868401</v>
+        <v>-0.0001778343684406238</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06859452952974832</v>
+        <v>0.07276839034215779</v>
       </c>
       <c r="E28" t="n">
-        <v>1.405082011114765e-05</v>
+        <v>1.424257976500928e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01083914214403778</v>
+        <v>0.01120079833226514</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.565843938984657e-06</v>
+        <v>-7.112329422344427e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005085065758592864</v>
+        <v>0.005330093902010588</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5703549820280729</v>
+        <v>0.5842613925151329</v>
       </c>
       <c r="J28" t="n">
-        <v>0.000125936733010363</v>
+        <v>-1.841582972845378e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.007826401210648601</v>
+        <v>-0.00779220638021926</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0009048103096607708</v>
+        <v>0.0009875724299125278</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0004662565029162421</v>
+        <v>-0.0005465838289667735</v>
       </c>
       <c r="N28" t="n">
-        <v>-7.577619571932646e-05</v>
+        <v>-4.266527650743952e-05</v>
       </c>
       <c r="O28" t="n">
-        <v>0.001544434459313514</v>
+        <v>0.00176298607347685</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.0007466397390383987</v>
+        <v>-0.0008533063023172442</v>
       </c>
       <c r="Q28" t="n">
-        <v>6736.090903158328</v>
+        <v>6717.117605631975</v>
       </c>
       <c r="R28" t="n">
-        <v>0.15235</v>
+        <v>0.14539</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9975182196997808</v>
+        <v>0.9974443913644798</v>
       </c>
       <c r="B29" t="n">
-        <v>53.28953224827121</v>
+        <v>52.93130605498397</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0001329259814686758</v>
+        <v>-0.0001564178301868401</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06378751384659033</v>
+        <v>0.06859452952974832</v>
       </c>
       <c r="E29" t="n">
-        <v>1.370668466681096e-05</v>
+        <v>1.405082011114765e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01046628080283353</v>
+        <v>0.01083914214403778</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.054099874718509e-06</v>
+        <v>-3.565843938984657e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>0.004960308394890072</v>
+        <v>0.005085065758592864</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5558879808661755</v>
+        <v>0.5703549820280729</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0001765891289170366</v>
+        <v>0.000125936733010363</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.007829398376167987</v>
+        <v>-0.007826401210648601</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002448942786623255</v>
+        <v>0.0009048103096607708</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0004078093268048838</v>
+        <v>-0.0004662565029162421</v>
       </c>
       <c r="N29" t="n">
-        <v>-9.969941181831856e-05</v>
+        <v>-7.577619571932646e-05</v>
       </c>
       <c r="O29" t="n">
-        <v>0.001398189338546685</v>
+        <v>0.001544434459313514</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.0005812563970016752</v>
+        <v>-0.0007466397390383987</v>
       </c>
       <c r="Q29" t="n">
-        <v>6754.528468237233</v>
+        <v>6736.090903158328</v>
       </c>
       <c r="R29" t="n">
-        <v>0.15931</v>
+        <v>0.15235</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9975949592848709</v>
+        <v>0.9975182196997808</v>
       </c>
       <c r="B30" t="n">
-        <v>53.65936262438861</v>
+        <v>53.28953224827121</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0001042737347434273</v>
+        <v>-0.0001329259814686758</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0583796825738648</v>
+        <v>0.06378751384659033</v>
       </c>
       <c r="E30" t="n">
-        <v>1.362835910947236e-05</v>
+        <v>1.370668466681096e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01011218036498567</v>
+        <v>0.01046628080283353</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.231039332548505e-06</v>
+        <v>-2.054099874718509e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>0.004801283702208953</v>
+        <v>0.004960308394890072</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5408048284327505</v>
+        <v>0.5558879808661755</v>
       </c>
       <c r="J30" t="n">
-        <v>-8.502045004010477e-05</v>
+        <v>0.0001765891289170366</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.00783156440425292</v>
+        <v>-0.007829398376167987</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0007964237818371845</v>
+        <v>0.002448942786623255</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0003547450046675661</v>
+        <v>-0.0004078093268048838</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.0001316135278478001</v>
+        <v>-9.969941181831856e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>0.001294741660241896</v>
+        <v>0.001398189338546685</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.0005183615424511491</v>
+        <v>-0.0005812563970016752</v>
       </c>
       <c r="Q30" t="n">
-        <v>6773.67649977058</v>
+        <v>6754.528468237233</v>
       </c>
       <c r="R30" t="n">
-        <v>0.16674</v>
+        <v>0.15931</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9976690838927306</v>
+        <v>0.9975949592848709</v>
       </c>
       <c r="B31" t="n">
-        <v>54.01823625494274</v>
+        <v>53.65936262438861</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.87201678877833e-05</v>
+        <v>-0.0001042737347434273</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05312302183414104</v>
+        <v>0.0583796825738648</v>
       </c>
       <c r="E31" t="n">
-        <v>1.334171782519369e-05</v>
+        <v>1.362835910947236e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>0.009842009278461798</v>
+        <v>0.01011218036498567</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.112651702216226e-06</v>
+        <v>-6.231039332548505e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>0.004767580647523881</v>
+        <v>0.004801283702208953</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5306867598058508</v>
+        <v>0.5408048284327505</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0002343405357822007</v>
+        <v>-8.502045004010477e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.007817799932131334</v>
+        <v>-0.00783156440425292</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0009998270934905417</v>
+        <v>0.0007964237818371845</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0003127624669860722</v>
+        <v>-0.0003547450046675661</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0001685388185325005</v>
+        <v>-0.0001316135278478001</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0012188318432282</v>
+        <v>0.001294741660241896</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.0003439597525316241</v>
+        <v>-0.0005183615424511491</v>
       </c>
       <c r="Q31" t="n">
-        <v>6792.384126913332</v>
+        <v>6773.67649977058</v>
       </c>
       <c r="R31" t="n">
-        <v>0.17417</v>
+        <v>0.16674</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.997741309698094</v>
+        <v>0.9976690838927306</v>
       </c>
       <c r="B32" t="n">
-        <v>54.36782608646765</v>
+        <v>54.01823625494274</v>
       </c>
       <c r="C32" t="n">
-        <v>-4.462562750473299e-05</v>
+        <v>-7.87201678877833e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04820830635872303</v>
+        <v>0.05312302183414104</v>
       </c>
       <c r="E32" t="n">
-        <v>1.299187590300145e-05</v>
+        <v>1.334171782519369e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.009609346406476638</v>
+        <v>0.009842009278461798</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.248737151323999e-06</v>
+        <v>-8.112651702216226e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>0.004610974410017756</v>
+        <v>0.004767580647523881</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5222277825003279</v>
+        <v>0.5306867598058508</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0001910432409347283</v>
+        <v>-0.0002343405357822007</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.007835765504660707</v>
+        <v>-0.007817799932131334</v>
       </c>
       <c r="L32" t="n">
-        <v>0.000913557607957838</v>
+        <v>0.0009998270934905417</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0002967536156590843</v>
+        <v>-0.0003127624669860722</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0002026482898130545</v>
+        <v>-0.0001685388185325005</v>
       </c>
       <c r="O32" t="n">
-        <v>0.001176698375971065</v>
+        <v>0.0012188318432282</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.0003047608367847679</v>
+        <v>-0.0003439597525316241</v>
       </c>
       <c r="Q32" t="n">
-        <v>6810.73548427389</v>
+        <v>6792.384126913332</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1816</v>
+        <v>0.17417</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9978114752909427</v>
+        <v>0.997741309698094</v>
       </c>
       <c r="B33" t="n">
-        <v>54.70894048649761</v>
+        <v>54.36782608646765</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.040285316504723e-05</v>
+        <v>-4.462562750473299e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04384569086409036</v>
+        <v>0.04820830635872303</v>
       </c>
       <c r="E33" t="n">
-        <v>1.249309886268106e-05</v>
+        <v>1.299187590300145e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>0.009354774016528927</v>
+        <v>0.009609346406476638</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.781339617213445e-06</v>
+        <v>-6.248737151323999e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004523030093763219</v>
+        <v>0.004610974410017756</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5127319098780008</v>
+        <v>0.5222277825003279</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0001298393727264105</v>
+        <v>-0.0001910432409347283</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.007814841661781076</v>
+        <v>-0.007835765504660707</v>
       </c>
       <c r="L33" t="n">
-        <v>0.002259901086323318</v>
+        <v>0.000913557607957838</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0002964554991031841</v>
+        <v>-0.0002967536156590843</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0002366395924516595</v>
+        <v>-0.0002026482898130545</v>
       </c>
       <c r="O33" t="n">
-        <v>0.001126284163466449</v>
+        <v>0.001176698375971065</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.0001945042397768932</v>
+        <v>-0.0003047608367847679</v>
       </c>
       <c r="Q33" t="n">
-        <v>6828.755761775943</v>
+        <v>6810.73548427389</v>
       </c>
       <c r="R33" t="n">
-        <v>0.18903</v>
+        <v>0.1816</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9978847971664702</v>
+        <v>0.9978114752909427</v>
       </c>
       <c r="B34" t="n">
-        <v>55.06258765765259</v>
+        <v>54.70894048649761</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.548861205712002e-05</v>
+        <v>-2.040285316504723e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04032879374454815</v>
+        <v>0.04384569086409036</v>
       </c>
       <c r="E34" t="n">
-        <v>1.226671116762759e-05</v>
+        <v>1.249309886268106e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>0.009097655386068477</v>
+        <v>0.009354774016528927</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.899891462573785e-06</v>
+        <v>-3.781339617213445e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>0.004392448509962021</v>
+        <v>0.004523030093763219</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5019067089072543</v>
+        <v>0.5127319098780008</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0003184472383640115</v>
+        <v>-0.0001298393727264105</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.007759319438698675</v>
+        <v>-0.007814841661781076</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0007581587896281181</v>
+        <v>0.002259901086323318</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0003091184929931111</v>
+        <v>-0.0002964554991031841</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0002688214618896947</v>
+        <v>-0.0002366395924516595</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0009770609729568749</v>
+        <v>0.001126284163466449</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.0001852192651108987</v>
+        <v>-0.0001945042397768932</v>
       </c>
       <c r="Q34" t="n">
-        <v>6847.54274633971</v>
+        <v>6828.755761775943</v>
       </c>
       <c r="R34" t="n">
-        <v>0.19695</v>
+        <v>0.18903</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9979558979254513</v>
+        <v>0.9978847971664702</v>
       </c>
       <c r="B35" t="n">
-        <v>55.40608635895128</v>
+        <v>55.06258765765259</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.101937353272681e-05</v>
+        <v>-1.548861205712002e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03782354138291449</v>
+        <v>0.04032879374454815</v>
       </c>
       <c r="E35" t="n">
-        <v>1.188586974913348e-05</v>
+        <v>1.226671116762759e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>0.008872702397706189</v>
+        <v>0.009097655386068477</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.508435995628264e-06</v>
+        <v>-5.899891462573785e-06</v>
       </c>
       <c r="H35" t="n">
-        <v>0.004342553569483892</v>
+        <v>0.004392448509962021</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4930058515020333</v>
+        <v>0.5019067089072543</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0004230178333340829</v>
+        <v>-0.0003184472383640115</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.007654619221794943</v>
+        <v>-0.007759319438698675</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0008879319958836752</v>
+        <v>0.0007581587896281181</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.000317219573070158</v>
+        <v>-0.0003091184929931111</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0002948914227195337</v>
+        <v>-0.0002688214618896947</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0008105561648382148</v>
+        <v>0.0009770609729568749</v>
       </c>
       <c r="P35" t="n">
-        <v>-6.338407658610596e-05</v>
+        <v>-0.0001852192651108987</v>
       </c>
       <c r="Q35" t="n">
-        <v>6865.900629815261</v>
+        <v>6847.54274633971</v>
       </c>
       <c r="R35" t="n">
-        <v>0.20486</v>
+        <v>0.19695</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9980253239332096</v>
+        <v>0.9979558979254513</v>
       </c>
       <c r="B36" t="n">
-        <v>55.73989657615111</v>
+        <v>55.40608635895128</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.684714039148262e-05</v>
+        <v>-2.101937353272681e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0360710647769894</v>
+        <v>0.03782354138291449</v>
       </c>
       <c r="E36" t="n">
-        <v>1.14915335926565e-05</v>
+        <v>1.188586974913348e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.008666305771630968</v>
+        <v>0.008872702397706189</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.748161996485075e-06</v>
+        <v>-6.508435995628264e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>0.004199298464783877</v>
+        <v>0.004342553569483892</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4848340123311032</v>
+        <v>0.4930058515020333</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.000433939561354922</v>
+        <v>-0.0004230178333340829</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.007566686512035008</v>
+        <v>-0.007654619221794943</v>
       </c>
       <c r="L36" t="n">
-        <v>0.000798949222955117</v>
+        <v>0.0008879319958836752</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0003081963598373982</v>
+        <v>-0.000317219573070158</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.0003009025911695058</v>
+        <v>-0.0002948914227195337</v>
       </c>
       <c r="O36" t="n">
-        <v>0.000650218849923311</v>
+        <v>0.0008105561648382148</v>
       </c>
       <c r="P36" t="n">
-        <v>-4.358131988567682e-05</v>
+        <v>-6.338407658610596e-05</v>
       </c>
       <c r="Q36" t="n">
-        <v>6883.845119983688</v>
+        <v>6865.900629815261</v>
       </c>
       <c r="R36" t="n">
-        <v>0.21277</v>
+        <v>0.20486</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9980927443076406</v>
+        <v>0.9980253239332096</v>
       </c>
       <c r="B37" t="n">
-        <v>56.06499519874065</v>
+        <v>55.73989657615111</v>
       </c>
       <c r="C37" t="n">
-        <v>-4.986461481418912e-05</v>
+        <v>-2.684714039148262e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0348377646917802</v>
+        <v>0.0360710647769894</v>
       </c>
       <c r="E37" t="n">
-        <v>1.103012362991442e-05</v>
+        <v>1.14915335926565e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>0.008459122670939451</v>
+        <v>0.008666305771630968</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.139758140271534e-06</v>
+        <v>-5.748161996485075e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>0.004126059142619851</v>
+        <v>0.004199298464783877</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4766900686643802</v>
+        <v>0.4848340123311032</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.000455501545688649</v>
+        <v>-0.000433939561354922</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.007454173321744344</v>
+        <v>-0.007566686512035008</v>
       </c>
       <c r="L37" t="n">
-        <v>0.002004663952263068</v>
+        <v>0.000798949222955117</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0002756681479982324</v>
+        <v>-0.0003081963598373982</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.0002907113214898334</v>
+        <v>-0.0003009025911695058</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0005035234615510952</v>
+        <v>0.000650218849923311</v>
       </c>
       <c r="P37" t="n">
-        <v>4.772967063448962e-05</v>
+        <v>-4.358131988567682e-05</v>
       </c>
       <c r="Q37" t="n">
-        <v>6901.420052654423</v>
+        <v>6883.845119983688</v>
       </c>
       <c r="R37" t="n">
-        <v>0.22069</v>
+        <v>0.21277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9981634572440548</v>
+        <v>0.9980927443076406</v>
       </c>
       <c r="B38" t="n">
-        <v>56.40124519405558</v>
+        <v>56.06499519874065</v>
       </c>
       <c r="C38" t="n">
-        <v>-8.386837987106522e-05</v>
+        <v>-4.986461481418912e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0337640923449077</v>
+        <v>0.0348377646917802</v>
       </c>
       <c r="E38" t="n">
-        <v>1.072163191568116e-05</v>
+        <v>1.103012362991442e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.008289715865744646</v>
+        <v>0.008459122670939451</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.860157457963629e-06</v>
+        <v>-5.139758140271534e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>0.004015705711526658</v>
+        <v>0.004126059142619851</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4699010545904311</v>
+        <v>0.4766900686643802</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0004203898158219301</v>
+        <v>-0.000455501545688649</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.00732638768816525</v>
+        <v>-0.007454173321744344</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0006917018508179757</v>
+        <v>0.002004663952263068</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0002303196578797811</v>
+        <v>-0.0002756681479982324</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0002722938434698188</v>
+        <v>-0.0002907113214898334</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0003508431492660633</v>
+        <v>0.0005035234615510952</v>
       </c>
       <c r="P38" t="n">
-        <v>5.189240904034781e-05</v>
+        <v>4.772967063448962e-05</v>
       </c>
       <c r="Q38" t="n">
-        <v>6919.690987683298</v>
+        <v>6901.420052654423</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2291</v>
+        <v>0.22069</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9982325743295665</v>
+        <v>0.9981634572440548</v>
       </c>
       <c r="B39" t="n">
-        <v>56.72813215644384</v>
+        <v>56.40124519405558</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0001028394514847935</v>
+        <v>-8.386837987106522e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03261618426533048</v>
+        <v>0.0337640923449077</v>
       </c>
       <c r="E39" t="n">
-        <v>1.030916945307546e-05</v>
+        <v>1.072163191568116e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>0.008152221107775338</v>
+        <v>0.008289715865744646</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.327302605777023e-06</v>
+        <v>-3.860157457963629e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>0.003965178685858923</v>
+        <v>0.004015705711526658</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4650082197485055</v>
+        <v>0.4699010545904311</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0004941041182582782</v>
+        <v>-0.0004203898158219301</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.00719858321368565</v>
+        <v>-0.00732638768816525</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0008447406946826934</v>
+        <v>0.0006917018508179757</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0001685855498045726</v>
+        <v>-0.0002303196578797811</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0002625573916654707</v>
+        <v>-0.0002722938434698188</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0001999587468918499</v>
+        <v>0.0003508431492660633</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0001247846243012987</v>
+        <v>5.189240904034781e-05</v>
       </c>
       <c r="Q39" t="n">
-        <v>6937.551401593908</v>
+        <v>6919.690987683298</v>
       </c>
       <c r="R39" t="n">
-        <v>0.23751</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9983005414066453</v>
+        <v>0.9982325743295665</v>
       </c>
       <c r="B40" t="n">
-        <v>57.04606123198592</v>
+        <v>56.72813215644384</v>
       </c>
       <c r="C40" t="n">
-        <v>-9.270298718801807e-05</v>
+        <v>-0.0001028394514847935</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03117674469013324</v>
+        <v>0.03261618426533048</v>
       </c>
       <c r="E40" t="n">
-        <v>9.921857319766099e-06</v>
+        <v>1.030916945307546e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>0.008010067556754933</v>
+        <v>0.008152221107775338</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.722946749387084e-06</v>
+        <v>-4.327302605777023e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003812951505409082</v>
+        <v>0.003965178685858923</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4596212961151403</v>
+        <v>0.4650082197485055</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.0006477664476958834</v>
+        <v>-0.0004941041182582782</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.007120196430153481</v>
+        <v>-0.00719858321368565</v>
       </c>
       <c r="L40" t="n">
-        <v>0.000798589326737291</v>
+        <v>0.0008447406946826934</v>
       </c>
       <c r="M40" t="n">
-        <v>-9.359024009410245e-05</v>
+        <v>-0.0001685855498045726</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.0002578392465278238</v>
+        <v>-0.0002625573916654707</v>
       </c>
       <c r="O40" t="n">
-        <v>8.493884195468568e-06</v>
+        <v>0.0001999587468918499</v>
       </c>
       <c r="P40" t="n">
-        <v>9.135168298103258e-05</v>
+        <v>0.0001247846243012987</v>
       </c>
       <c r="Q40" t="n">
-        <v>6955.020493058052</v>
+        <v>6937.551401593908</v>
       </c>
       <c r="R40" t="n">
-        <v>0.24591</v>
+        <v>0.23751</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9983668219261258</v>
+        <v>0.9983005414066453</v>
       </c>
       <c r="B41" t="n">
-        <v>57.35568150334515</v>
+        <v>57.04606123198592</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.430615870317281e-05</v>
+        <v>-9.270298718801807e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02930718153120744</v>
+        <v>0.03117674469013324</v>
       </c>
       <c r="E41" t="n">
-        <v>9.514243591039232e-06</v>
+        <v>9.921857319766099e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>0.007829203193793223</v>
+        <v>0.008010067556754933</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.371349311937938e-06</v>
+        <v>-5.722946749387084e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>0.003702031615629768</v>
+        <v>0.003812951505409082</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4521649202226344</v>
+        <v>0.4596212961151403</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.0007501082359197171</v>
+        <v>-0.0006477664476958834</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.007041830348760329</v>
+        <v>-0.007120196430153481</v>
       </c>
       <c r="L41" t="n">
-        <v>0.001957828387661899</v>
+        <v>0.000798589326737291</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.009663543928339e-05</v>
+        <v>-9.359024009410245e-05</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.0002445902469224415</v>
+        <v>-0.0002578392465278238</v>
       </c>
       <c r="O41" t="n">
-        <v>-8.874112079833964e-05</v>
+        <v>8.493884195468568e-06</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0001370979853248177</v>
+        <v>9.135168298103258e-05</v>
       </c>
       <c r="Q41" t="n">
-        <v>6972.131583742489</v>
+        <v>6955.020493058052</v>
       </c>
       <c r="R41" t="n">
-        <v>0.25432</v>
+        <v>0.24591</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.998436053162422</v>
+        <v>0.9983668219261258</v>
       </c>
       <c r="B42" t="n">
-        <v>57.67476193099829</v>
+        <v>57.35568150334515</v>
       </c>
       <c r="C42" t="n">
-        <v>-4.664261095705946e-05</v>
+        <v>-7.430615870317281e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02648138342294147</v>
+        <v>0.02930718153120744</v>
       </c>
       <c r="E42" t="n">
-        <v>9.281854681478172e-06</v>
+        <v>9.514243591039232e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.007632380828470231</v>
+        <v>0.007829203193793223</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.705073714133239e-06</v>
+        <v>-6.371349311937938e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>0.003550616215124792</v>
+        <v>0.003702031615629768</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4431870679335095</v>
+        <v>0.4521649202226344</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0006396013597323889</v>
+        <v>-0.0007501082359197171</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.006954415432288749</v>
+        <v>-0.007041830348760329</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0007849929793606891</v>
+        <v>0.001957828387661899</v>
       </c>
       <c r="M42" t="n">
-        <v>9.68245289833399e-05</v>
+        <v>-1.009663543928339e-05</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.0002246456109753191</v>
+        <v>-0.0002445902469224415</v>
       </c>
       <c r="O42" t="n">
-        <v>-8.393354174787197e-05</v>
+        <v>-8.874112079833964e-05</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0001148865063554843</v>
+        <v>0.0001370979853248177</v>
       </c>
       <c r="Q42" t="n">
-        <v>6989.863377679037</v>
+        <v>6972.131583742489</v>
       </c>
       <c r="R42" t="n">
-        <v>0.26323</v>
+        <v>0.25432</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9985032783943331</v>
+        <v>0.998436053162422</v>
       </c>
       <c r="B43" t="n">
-        <v>57.98512880193399</v>
+        <v>57.67476193099829</v>
       </c>
       <c r="C43" t="n">
-        <v>-3.21161769423364e-05</v>
+        <v>-4.664261095705946e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02283328598062207</v>
+        <v>0.02648138342294147</v>
       </c>
       <c r="E43" t="n">
-        <v>8.938764380664463e-06</v>
+        <v>9.281854681478172e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>0.007461884640917525</v>
+        <v>0.007632380828470231</v>
       </c>
       <c r="G43" t="n">
-        <v>-9.769509299443353e-07</v>
+        <v>-3.705073714133239e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>0.003473319801415625</v>
+        <v>0.003550616215124792</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4358955539438917</v>
+        <v>0.4431870679335095</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0004999441417874485</v>
+        <v>-0.0006396013597323889</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.006849527728063191</v>
+        <v>-0.006954415432288749</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0009426427047517206</v>
+        <v>0.0007849929793606891</v>
       </c>
       <c r="M43" t="n">
-        <v>0.000211645230253867</v>
+        <v>9.68245289833399e-05</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0001916949378213527</v>
+        <v>-0.0002246456109753191</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.594109235232146e-05</v>
+        <v>-8.393354174787197e-05</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0001859258375851277</v>
+        <v>0.0001148865063554843</v>
       </c>
       <c r="Q43" t="n">
-        <v>7007.216932463056</v>
+        <v>6989.863377679037</v>
       </c>
       <c r="R43" t="n">
-        <v>0.27214</v>
+        <v>0.26323</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.99856907120931</v>
+        <v>0.9985032783943331</v>
       </c>
       <c r="B44" t="n">
-        <v>58.28824757407095</v>
+        <v>57.98512880193399</v>
       </c>
       <c r="C44" t="n">
-        <v>-4.376334346620088e-05</v>
+        <v>-3.21161769423364e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01838350765194019</v>
+        <v>0.02283328598062207</v>
       </c>
       <c r="E44" t="n">
-        <v>8.594030361804607e-06</v>
+        <v>8.938764380664463e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0.007304652892561983</v>
+        <v>0.007461884640917525</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.308731721180708e-07</v>
+        <v>-9.769509299443353e-07</v>
       </c>
       <c r="H44" t="n">
-        <v>0.003334373251951931</v>
+        <v>0.003473319801415625</v>
       </c>
       <c r="I44" t="n">
-        <v>0.429231538501902</v>
+        <v>0.4358955539438917</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0004766405110803767</v>
+        <v>-0.0004999441417874485</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.006763592972110717</v>
+        <v>-0.006849527728063191</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0009087578050646291</v>
+        <v>0.0009426427047517206</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0003146571494175147</v>
+        <v>0.000211645230253867</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.0001485958222205356</v>
+        <v>-0.0001916949378213527</v>
       </c>
       <c r="O44" t="n">
-        <v>-8.991607336744057e-06</v>
+        <v>-1.594109235232146e-05</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0001718569126722561</v>
+        <v>0.0001859258375851277</v>
       </c>
       <c r="Q44" t="n">
-        <v>7024.262653187217</v>
+        <v>7007.216932463056</v>
       </c>
       <c r="R44" t="n">
-        <v>0.28105</v>
+        <v>0.27214</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9986330894248608</v>
+        <v>0.99856907120931</v>
       </c>
       <c r="B45" t="n">
-        <v>58.58528187252862</v>
+        <v>58.28824757407095</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.695669190663764e-05</v>
+        <v>-4.376334346620088e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01321103837586589</v>
+        <v>0.01838350765194019</v>
       </c>
       <c r="E45" t="n">
-        <v>8.216034588899813e-06</v>
+        <v>8.594030361804607e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00713981338033395</v>
+        <v>0.007304652892561983</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.314801619461949e-06</v>
+        <v>-3.308731721180708e-07</v>
       </c>
       <c r="H45" t="n">
-        <v>0.003258986036431368</v>
+        <v>0.003334373251951931</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4222330564082382</v>
+        <v>0.429231538501902</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0005596278907416464</v>
+        <v>-0.0004766405110803767</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.006652245923710201</v>
+        <v>-0.006763592972110717</v>
       </c>
       <c r="L45" t="n">
-        <v>0.001941236040060473</v>
+        <v>0.0009087578050646291</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0003974434691769505</v>
+        <v>0.0003146571494175147</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.0001010449505225146</v>
+        <v>-0.0001485958222205356</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0001568306657842826</v>
+        <v>-8.991607336744057e-06</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0002260216942835647</v>
+        <v>0.0001718569126722561</v>
       </c>
       <c r="Q45" t="n">
-        <v>7041.060204086742</v>
+        <v>7024.262653187217</v>
       </c>
       <c r="R45" t="n">
-        <v>0.28996</v>
+        <v>0.28105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9986998498229044</v>
+        <v>0.9986330894248608</v>
       </c>
       <c r="B46" t="n">
-        <v>58.89252169187235</v>
+        <v>58.58528187252862</v>
       </c>
       <c r="C46" t="n">
-        <v>-8.511512862165098e-05</v>
+        <v>-7.695669190663764e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.007677584932616326</v>
+        <v>0.01321103837586589</v>
       </c>
       <c r="E46" t="n">
-        <v>7.978551620866723e-06</v>
+        <v>8.216034588899813e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00697170534255355</v>
+        <v>0.00713981338033395</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.073844276977568e-06</v>
+        <v>-1.314801619461949e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>0.003170689098852982</v>
+        <v>0.003258986036431368</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4143381228612657</v>
+        <v>0.4222330564082382</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.0005928565739157817</v>
+        <v>-0.0005596278907416464</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.006522774838647701</v>
+        <v>-0.006652245923710201</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008483206403060548</v>
+        <v>0.001941236040060473</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0004489679776084069</v>
+        <v>0.0003974434691769505</v>
       </c>
       <c r="N46" t="n">
-        <v>-6.151141197729053e-05</v>
+        <v>-0.0001010449505225146</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.0004210862200853807</v>
+        <v>-0.0001568306657842826</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0002145490041002343</v>
+        <v>0.0002260216942835647</v>
       </c>
       <c r="Q46" t="n">
-        <v>7058.519919207288</v>
+        <v>7041.060204086742</v>
       </c>
       <c r="R46" t="n">
-        <v>0.29938</v>
+        <v>0.28996</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9987648814977229</v>
+        <v>0.9986998498229044</v>
       </c>
       <c r="B47" t="n">
-        <v>59.19287726991624</v>
+        <v>58.89252169187235</v>
       </c>
       <c r="C47" t="n">
-        <v>-6.66148139577584e-05</v>
+        <v>-8.511512862165098e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003064519048595421</v>
+        <v>0.007677584932616326</v>
       </c>
       <c r="E47" t="n">
-        <v>7.656917526592004e-06</v>
+        <v>7.978551620866723e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>0.006848015813796594</v>
+        <v>0.00697170534255355</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.127693738977867e-07</v>
+        <v>-1.073844276977568e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>0.003146005692837766</v>
+        <v>0.003170689098852982</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4091679140945634</v>
+        <v>0.4143381228612657</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.0006115023418065626</v>
+        <v>-0.0005928565739157817</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.006381171459356082</v>
+        <v>-0.006522774838647701</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0009842274990225449</v>
+        <v>0.0008483206403060548</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0004658563922731584</v>
+        <v>0.0004489679776084069</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.103945380765726e-05</v>
+        <v>-6.151141197729053e-05</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.000574696649074605</v>
+        <v>-0.0004210862200853807</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0002764679266679147</v>
+        <v>0.0002145490041002343</v>
       </c>
       <c r="Q47" t="n">
-        <v>7075.683870468171</v>
+        <v>7058.519919207288</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3088</v>
+        <v>0.29938</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.99882880971496</v>
+        <v>0.9987648814977229</v>
       </c>
       <c r="B48" t="n">
-        <v>59.48706755870393</v>
+        <v>59.19287726991624</v>
       </c>
       <c r="C48" t="n">
-        <v>-4.01175708626158e-05</v>
+        <v>-6.66148139577584e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.0002673379402702365</v>
+        <v>0.003064519048595421</v>
       </c>
       <c r="E48" t="n">
-        <v>7.311426050051881e-06</v>
+        <v>7.656917526592004e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>0.006737123558778882</v>
+        <v>0.006848015813796594</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.71442127777365e-06</v>
+        <v>-7.127693738977867e-07</v>
       </c>
       <c r="H48" t="n">
-        <v>0.003045463945993178</v>
+        <v>0.003146005692837766</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4045832074736229</v>
+        <v>0.4091679140945634</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.0006871084749746062</v>
+        <v>-0.0006115023418065626</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.00625960541371897</v>
+        <v>-0.006381171459356082</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0009440015400570042</v>
+        <v>0.0009842274990225449</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0004599346832420681</v>
+        <v>0.0004658563922731584</v>
       </c>
       <c r="N48" t="n">
-        <v>2.234831109220592e-05</v>
+        <v>-2.103945380765726e-05</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.0006283167403313656</v>
+        <v>-0.000574696649074605</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0002509528097124904</v>
+        <v>0.0002764679266679147</v>
       </c>
       <c r="Q48" t="n">
-        <v>7092.580592955736</v>
+        <v>7075.683870468171</v>
       </c>
       <c r="R48" t="n">
-        <v>0.31821</v>
+        <v>0.3088</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9988913299713275</v>
+        <v>0.99882880971496</v>
       </c>
       <c r="B49" t="n">
-        <v>59.77590817263545</v>
+        <v>59.48706755870393</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.936365460036424e-05</v>
+        <v>-4.01175708626158e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002498111309377825</v>
+        <v>-0.0002673379402702365</v>
       </c>
       <c r="E49" t="n">
-        <v>6.961299642979523e-06</v>
+        <v>7.311426050051881e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.006606348587282846</v>
+        <v>0.006737123558778882</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.491819440421663e-06</v>
+        <v>-1.71442127777365e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>0.002980015577360209</v>
+        <v>0.003045463945993178</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3988784172523003</v>
+        <v>0.4045832074736229</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.0007424417737939692</v>
+        <v>-0.0006871084749746062</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.006119283525792434</v>
+        <v>-0.00625960541371897</v>
       </c>
       <c r="L49" t="n">
-        <v>0.001904410830935794</v>
+        <v>0.0009440015400570042</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0004471976397237439</v>
+        <v>0.0004599346832420681</v>
       </c>
       <c r="N49" t="n">
-        <v>6.00639599767733e-05</v>
+        <v>2.234831109220592e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.0006097455449706332</v>
+        <v>-0.0006283167403313656</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0002742599022037055</v>
+        <v>0.0002509528097124904</v>
       </c>
       <c r="Q49" t="n">
-        <v>7109.243211972299</v>
+        <v>7092.580592955736</v>
       </c>
       <c r="R49" t="n">
-        <v>0.32763</v>
+        <v>0.31821</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9989563909596894</v>
+        <v>0.9988913299713275</v>
       </c>
       <c r="B50" t="n">
-        <v>60.07414898521391</v>
+        <v>59.77590817263545</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.411524807252103e-05</v>
+        <v>-2.936365460036424e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.003818244391485317</v>
+        <v>-0.002498111309377825</v>
       </c>
       <c r="E50" t="n">
-        <v>6.72678652581953e-06</v>
+        <v>6.961299642979523e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.006445337241356046</v>
+        <v>0.006606348587282846</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.378733638772078e-07</v>
+        <v>-2.491819440421663e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>0.002879567370026142</v>
+        <v>0.002980015577360209</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3907162763441465</v>
+        <v>0.3988784172523003</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0006312172662296055</v>
+        <v>-0.0007424417737939692</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.005957783612416933</v>
+        <v>-0.006119283525792434</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0009209251589933623</v>
+        <v>0.001904410830935794</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0004272540273004591</v>
+        <v>0.0004471976397237439</v>
       </c>
       <c r="N50" t="n">
-        <v>8.357477736527051e-05</v>
+        <v>6.00639599767733e-05</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.0005959583081877514</v>
+        <v>-0.0006097455449706332</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0002358489139808586</v>
+        <v>0.0002742599022037055</v>
       </c>
       <c r="Q50" t="n">
-        <v>7126.508510400877</v>
+        <v>7109.243211972299</v>
       </c>
       <c r="R50" t="n">
-        <v>0.33755</v>
+        <v>0.32763</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9990196580199021</v>
+        <v>0.9989563909596894</v>
       </c>
       <c r="B51" t="n">
-        <v>60.36642799047993</v>
+        <v>60.07414898521391</v>
       </c>
       <c r="C51" t="n">
-        <v>-3.591956050299647e-06</v>
+        <v>-1.411524807252103e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.004064740989967204</v>
+        <v>-0.003818244391485317</v>
       </c>
       <c r="E51" t="n">
-        <v>6.435385360912309e-06</v>
+        <v>6.72678652581953e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.006317767833361444</v>
+        <v>0.006445337241356046</v>
       </c>
       <c r="G51" t="n">
-        <v>1.978006891313876e-06</v>
+        <v>-4.378733638772078e-07</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002819530432792463</v>
+        <v>0.002879567370026142</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3845919764996907</v>
+        <v>0.3907162763441465</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.0005003038942553551</v>
+        <v>-0.0006312172662296055</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.005796254134172524</v>
+        <v>-0.005957783612416933</v>
       </c>
       <c r="L51" t="n">
-        <v>0.001098174608703563</v>
+        <v>0.0009209251589933623</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0004020698375517962</v>
+        <v>0.0004272540273004591</v>
       </c>
       <c r="N51" t="n">
-        <v>9.538912200135306e-05</v>
+        <v>8.357477736527051e-05</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.0005664426281320815</v>
+        <v>-0.0005959583081877514</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0002610999011058639</v>
+        <v>0.0002358489139808586</v>
       </c>
       <c r="Q51" t="n">
-        <v>7143.498912215472</v>
+        <v>7126.508510400877</v>
       </c>
       <c r="R51" t="n">
-        <v>0.34747</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9990817731826614</v>
+        <v>0.9990196580199021</v>
       </c>
       <c r="B52" t="n">
-        <v>60.65409325162571</v>
+        <v>60.36642799047993</v>
       </c>
       <c r="C52" t="n">
-        <v>2.238459810347986e-06</v>
+        <v>-3.591956050299647e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.002986205652130581</v>
+        <v>-0.004064740989967204</v>
       </c>
       <c r="E52" t="n">
-        <v>6.153103420234945e-06</v>
+        <v>6.435385360912309e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>0.006202593252150447</v>
+        <v>0.006317767833361444</v>
       </c>
       <c r="G52" t="n">
-        <v>2.643641475371902e-06</v>
+        <v>1.978006891313876e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>0.002691518698826131</v>
+        <v>0.002819530432792463</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3791984575626393</v>
+        <v>0.3845919764996907</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0004697992013403044</v>
+        <v>-0.0005003038942553551</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.005668941343222577</v>
+        <v>-0.005796254134172524</v>
       </c>
       <c r="L52" t="n">
-        <v>0.001121359776105864</v>
+        <v>0.001098174608703563</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0003687775982367084</v>
+        <v>0.0004020698375517962</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0001020970027201627</v>
+        <v>9.538912200135306e-05</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.000594732974142951</v>
+        <v>-0.0005664426281320815</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0002126534975142107</v>
+        <v>0.0002610999011058639</v>
       </c>
       <c r="Q52" t="n">
-        <v>7160.303810044422</v>
+        <v>7143.498912215472</v>
       </c>
       <c r="R52" t="n">
-        <v>0.35739</v>
+        <v>0.34747</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9991423646820708</v>
+        <v>0.9990817731826614</v>
       </c>
       <c r="B53" t="n">
-        <v>60.93831564251044</v>
+        <v>60.65409325162571</v>
       </c>
       <c r="C53" t="n">
-        <v>1.499156988530983e-05</v>
+        <v>2.238459810347986e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0003860625928743654</v>
+        <v>-0.002986205652130581</v>
       </c>
       <c r="E53" t="n">
-        <v>5.8664146768198e-06</v>
+        <v>6.153103420234945e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>0.006072845400573452</v>
+        <v>0.006202593252150447</v>
       </c>
       <c r="G53" t="n">
-        <v>2.499864888548829e-06</v>
+        <v>2.643641475371902e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002599665891757131</v>
+        <v>0.002691518698826131</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3731798413822828</v>
+        <v>0.3791984575626393</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0004822460755889575</v>
+        <v>-0.0004697992013403044</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.005555481709134012</v>
+        <v>-0.005668941343222577</v>
       </c>
       <c r="L53" t="n">
-        <v>0.002092130472554514</v>
+        <v>0.001121359776105864</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0003324230930298084</v>
+        <v>0.0003687775982367084</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0001039083439788122</v>
+        <v>0.0001020970027201627</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.0005597210394830834</v>
+        <v>-0.000594732974142951</v>
       </c>
       <c r="P53" t="n">
-        <v>0.000226589895099299</v>
+        <v>0.0002126534975142107</v>
       </c>
       <c r="Q53" t="n">
-        <v>7176.986037369446</v>
+        <v>7160.303810044422</v>
       </c>
       <c r="R53" t="n">
-        <v>0.36731</v>
+        <v>0.35739</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9992053329060551</v>
+        <v>0.9991423646820708</v>
       </c>
       <c r="B54" t="n">
-        <v>61.23260448642266</v>
+        <v>60.93831564251044</v>
       </c>
       <c r="C54" t="n">
-        <v>2.944697063585764e-05</v>
+        <v>1.499156988530983e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.003922420351149715</v>
+        <v>-0.0003860625928743654</v>
       </c>
       <c r="E54" t="n">
-        <v>5.635843139278123e-06</v>
+        <v>5.8664146768198e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005946102905043009</v>
+        <v>0.006072845400573452</v>
       </c>
       <c r="G54" t="n">
-        <v>3.967565483798286e-06</v>
+        <v>2.499864888548829e-06</v>
       </c>
       <c r="H54" t="n">
-        <v>0.002471911457720658</v>
+        <v>0.002599665891757131</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3669484708682371</v>
+        <v>0.3731798413822828</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.0003668978996656739</v>
+        <v>-0.0004822460755889575</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.005445022570499052</v>
+        <v>-0.005555481709134012</v>
       </c>
       <c r="L54" t="n">
-        <v>0.001244947594568753</v>
+        <v>0.002092130472554514</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0002694229319970061</v>
+        <v>0.0003324230930298084</v>
       </c>
       <c r="N54" t="n">
-        <v>9.952029093018495e-05</v>
+        <v>0.0001039083439788122</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.0002929762628859354</v>
+        <v>-0.0005597210394830834</v>
       </c>
       <c r="P54" t="n">
-        <v>0.000197802017338759</v>
+        <v>0.000226589895099299</v>
       </c>
       <c r="Q54" t="n">
-        <v>7194.323296237706</v>
+        <v>7176.986037369446</v>
       </c>
       <c r="R54" t="n">
-        <v>0.37773</v>
+        <v>0.36731</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9992666741103051</v>
+        <v>0.9992053329060551</v>
       </c>
       <c r="B55" t="n">
-        <v>61.52239410805644</v>
+        <v>61.23260448642266</v>
       </c>
       <c r="C55" t="n">
-        <v>1.104569729975966e-05</v>
+        <v>2.944697063585764e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.008902608082858265</v>
+        <v>0.003922420351149715</v>
       </c>
       <c r="E55" t="n">
-        <v>5.381030037891315e-06</v>
+        <v>5.635843139278123e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00582764721133412</v>
+        <v>0.005946102905043009</v>
       </c>
       <c r="G55" t="n">
-        <v>4.295218643656603e-06</v>
+        <v>3.967565483798286e-06</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00238798585896099</v>
+        <v>0.002471911457720658</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3614420658158581</v>
+        <v>0.3669484708682371</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.0003056840068165892</v>
+        <v>-0.0003668978996656739</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.005330488744626225</v>
+        <v>-0.005445022570499052</v>
       </c>
       <c r="L55" t="n">
-        <v>0.00143281990522097</v>
+        <v>0.001244947594568753</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0001846670600605611</v>
+        <v>0.0002694229319970061</v>
       </c>
       <c r="N55" t="n">
-        <v>9.001374679664924e-05</v>
+        <v>9.952029093018495e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>-2.122546839039374e-05</v>
+        <v>-0.0002929762628859354</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0002419905545972377</v>
+        <v>0.000197802017338759</v>
       </c>
       <c r="Q55" t="n">
-        <v>7211.469339977003</v>
+        <v>7194.323296237706</v>
       </c>
       <c r="R55" t="n">
-        <v>0.38815</v>
+        <v>0.37773</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.999326830426716</v>
+        <v>0.9992666741103051</v>
       </c>
       <c r="B56" t="n">
-        <v>61.80803080901783</v>
+        <v>61.52239410805644</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.12512014231384e-05</v>
+        <v>1.104569729975966e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01450351075368828</v>
+        <v>0.008902608082858265</v>
       </c>
       <c r="E56" t="n">
-        <v>5.152410044833867e-06</v>
+        <v>5.381030037891315e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>0.005719351819193793</v>
+        <v>0.00582764721133412</v>
       </c>
       <c r="G56" t="n">
-        <v>3.646937445799287e-06</v>
+        <v>4.295218643656603e-06</v>
       </c>
       <c r="H56" t="n">
-        <v>0.002251797539667057</v>
+        <v>0.00238798585896099</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3565048483724067</v>
+        <v>0.3614420658158581</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.0003119012431528641</v>
+        <v>-0.0003056840068165892</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.005240055767140797</v>
+        <v>-0.005330488744626225</v>
       </c>
       <c r="L56" t="n">
-        <v>0.001485739121767959</v>
+        <v>0.00143281990522097</v>
       </c>
       <c r="M56" t="n">
-        <v>9.971352937106764e-05</v>
+        <v>0.0001846670600605611</v>
       </c>
       <c r="N56" t="n">
-        <v>7.477049313630553e-05</v>
+        <v>9.001374679664924e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0001678901393561777</v>
+        <v>-2.122546839039374e-05</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0002280453929186485</v>
+        <v>0.0002419905545972377</v>
       </c>
       <c r="Q56" t="n">
-        <v>7228.448564389083</v>
+        <v>7211.469339977003</v>
       </c>
       <c r="R56" t="n">
-        <v>0.39857</v>
+        <v>0.38815</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9993855446449653</v>
+        <v>0.999326830426716</v>
       </c>
       <c r="B57" t="n">
-        <v>62.08966306853318</v>
+        <v>61.80803080901783</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.085870771724759e-05</v>
+        <v>-1.12512014231384e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02166145058545041</v>
+        <v>0.01450351075368828</v>
       </c>
       <c r="E57" t="n">
-        <v>4.946376467762591e-06</v>
+        <v>5.152410044833867e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>0.005619953415078428</v>
+        <v>0.005719351819193793</v>
       </c>
       <c r="G57" t="n">
-        <v>3.021224977618825e-06</v>
+        <v>3.646937445799287e-06</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002149113999927689</v>
+        <v>0.002251797539667057</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3522136952830719</v>
+        <v>0.3565048483724067</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.0003302728524897214</v>
+        <v>-0.0003119012431528641</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.005145840194837054</v>
+        <v>-0.005240055767140797</v>
       </c>
       <c r="L57" t="n">
-        <v>0.002342899142504833</v>
+        <v>0.001485739121767959</v>
       </c>
       <c r="M57" t="n">
-        <v>2.857902804043212e-05</v>
+        <v>9.971352937106764e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>6.127541462205915e-05</v>
+        <v>7.477049313630553e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>0.000302935393054167</v>
+        <v>0.0001678901393561777</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0002654812361339536</v>
+        <v>0.0002280453929186485</v>
       </c>
       <c r="Q57" t="n">
-        <v>7245.26295080394</v>
+        <v>7228.448564389083</v>
       </c>
       <c r="R57" t="n">
-        <v>0.409</v>
+        <v>0.39857</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9994465998988025</v>
+        <v>0.9993855446449653</v>
       </c>
       <c r="B58" t="n">
-        <v>62.37942553550346</v>
+        <v>62.08966306853318</v>
       </c>
       <c r="C58" t="n">
-        <v>-3.051222520042526e-05</v>
+        <v>-3.085870771724759e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03095761300675437</v>
+        <v>0.02166145058545041</v>
       </c>
       <c r="E58" t="n">
-        <v>4.759796561765559e-06</v>
+        <v>4.946376467762591e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>0.005509744316410862</v>
+        <v>0.005619953415078428</v>
       </c>
       <c r="G58" t="n">
-        <v>2.215986317210317e-06</v>
+        <v>3.021224977618825e-06</v>
       </c>
       <c r="H58" t="n">
-        <v>0.002017875460986094</v>
+        <v>0.002149113999927689</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3466081712111842</v>
+        <v>0.3522136952830719</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.0003697763120328332</v>
+        <v>-0.0003302728524897214</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.005047563556511311</v>
+        <v>-0.005145840194837054</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0015722273260617</v>
+        <v>0.002342899142504833</v>
       </c>
       <c r="M58" t="n">
-        <v>-3.256040458646951e-05</v>
+        <v>2.857902804043212e-05</v>
       </c>
       <c r="N58" t="n">
-        <v>5.19661085308019e-05</v>
+        <v>6.127541462205915e-05</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0004662278202294297</v>
+        <v>0.000302935393054167</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0002656790002400573</v>
+        <v>0.0002654812361339536</v>
       </c>
       <c r="Q58" t="n">
-        <v>7262.62466730148</v>
+        <v>7245.26295080394</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4199100000000001</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9995062051610727</v>
+        <v>0.9994465998988025</v>
       </c>
       <c r="B59" t="n">
-        <v>62.66351237795394</v>
+        <v>62.37942553550346</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.749646439197191e-05</v>
+        <v>-3.051222520042526e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04093337382043515</v>
+        <v>0.03095761300675437</v>
       </c>
       <c r="E59" t="n">
-        <v>4.544160779296813e-06</v>
+        <v>4.759796561765559e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>0.005418749805363468</v>
+        <v>0.005509744316410862</v>
       </c>
       <c r="G59" t="n">
-        <v>8.076634029453216e-07</v>
+        <v>2.215986317210317e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>0.001949819935380903</v>
+        <v>0.002017875460986094</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3423109389629131</v>
+        <v>0.3466081712111842</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.000445201109433856</v>
+        <v>-0.0003697763120328332</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.004951198277700942</v>
+        <v>-0.005047563556511311</v>
       </c>
       <c r="L59" t="n">
-        <v>0.001672020388899641</v>
+        <v>0.0015722273260617</v>
       </c>
       <c r="M59" t="n">
-        <v>-6.39590045035363e-05</v>
+        <v>-3.256040458646951e-05</v>
       </c>
       <c r="N59" t="n">
-        <v>3.726983751540638e-05</v>
+        <v>5.19661085308019e-05</v>
       </c>
       <c r="O59" t="n">
-        <v>0.0006252665644422293</v>
+        <v>0.0004662278202294297</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0003474410068986339</v>
+        <v>0.0002656790002400573</v>
       </c>
       <c r="Q59" t="n">
-        <v>7279.720017276963</v>
+        <v>7262.62466730148</v>
       </c>
       <c r="R59" t="n">
-        <v>0.43082</v>
+        <v>0.4199100000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9995648680047227</v>
+        <v>0.9995062051610727</v>
       </c>
       <c r="B60" t="n">
-        <v>62.9417579880437</v>
+        <v>62.66351237795394</v>
       </c>
       <c r="C60" t="n">
-        <v>-3.206379206161457e-06</v>
+        <v>-1.749646439197191e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04984816478848897</v>
+        <v>0.04093337382043515</v>
       </c>
       <c r="E60" t="n">
-        <v>4.350178338935402e-06</v>
+        <v>4.544160779296813e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00533717304773149</v>
+        <v>0.005418749805363468</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.147975605414066e-06</v>
+        <v>8.076634029453216e-07</v>
       </c>
       <c r="H60" t="n">
-        <v>0.001861571904466846</v>
+        <v>0.001949819935380903</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3387148848784693</v>
+        <v>0.3423109389629131</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.0005643888155260959</v>
+        <v>-0.000445201109433856</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.004888496405813235</v>
+        <v>-0.004951198277700942</v>
       </c>
       <c r="L60" t="n">
-        <v>0.00162919153975719</v>
+        <v>0.001672020388899641</v>
       </c>
       <c r="M60" t="n">
-        <v>-5.964511252976893e-05</v>
+        <v>-6.39590045035363e-05</v>
       </c>
       <c r="N60" t="n">
-        <v>1.110630287505668e-05</v>
+        <v>3.726983751540638e-05</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0006788673787702631</v>
+        <v>0.0006252665644422293</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0003829960085530443</v>
+        <v>0.0003474410068986339</v>
       </c>
       <c r="Q60" t="n">
-        <v>7296.539197812487</v>
+        <v>7279.720017276963</v>
       </c>
       <c r="R60" t="n">
-        <v>0.44173</v>
+        <v>0.43082</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.999621968831169</v>
+        <v>0.9995648680047227</v>
       </c>
       <c r="B61" t="n">
-        <v>63.21456533798093</v>
+        <v>62.9417579880437</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.398281141468399e-06</v>
+        <v>-3.206379206161457e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>0.05681511459105038</v>
+        <v>0.04984816478848897</v>
       </c>
       <c r="E61" t="n">
-        <v>4.189823689794063e-06</v>
+        <v>4.350178338935402e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005253517604655085</v>
+        <v>0.00533717304773149</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.413367207266322e-06</v>
+        <v>-1.147975605414066e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>0.001810248159747986</v>
+        <v>0.001861571904466846</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3353023131687935</v>
+        <v>0.3387148848784693</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.0006480745774133724</v>
+        <v>-0.0005643888155260959</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.004834516076216712</v>
+        <v>-0.004888496405813235</v>
       </c>
       <c r="L61" t="n">
-        <v>0.002321887274081168</v>
+        <v>0.00162919153975719</v>
       </c>
       <c r="M61" t="n">
-        <v>-3.046662646784731e-05</v>
+        <v>-5.964511252976893e-05</v>
       </c>
       <c r="N61" t="n">
-        <v>-1.979825406190477e-05</v>
+        <v>1.110630287505668e-05</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0005862111075244579</v>
+        <v>0.0006788673787702631</v>
       </c>
       <c r="P61" t="n">
-        <v>0.000462267333667332</v>
+        <v>0.0003829960085530443</v>
       </c>
       <c r="Q61" t="n">
-        <v>7313.099133273324</v>
+        <v>7296.539197812487</v>
       </c>
       <c r="R61" t="n">
-        <v>0.45264</v>
+        <v>0.44173</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9996822550177097</v>
+        <v>0.999621968831169</v>
       </c>
       <c r="B62" t="n">
-        <v>63.49344558760144</v>
+        <v>63.21456533798093</v>
       </c>
       <c r="C62" t="n">
-        <v>2.028019527370605e-06</v>
+        <v>-7.398281141468399e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06204359319484267</v>
+        <v>0.05681511459105038</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.325989985748019e-06</v>
+        <v>4.189823689794063e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00515649652555237</v>
+        <v>0.005253517604655085</v>
       </c>
       <c r="G62" t="n">
-        <v>2.901273197841125e-06</v>
+        <v>-2.413367207266322e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.000230258899936283</v>
+        <v>0.001810248159747986</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3305633861809186</v>
+        <v>0.3353023131687935</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.0002672017516538294</v>
+        <v>-0.0006480745774133724</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.004846527267105188</v>
+        <v>-0.004834516076216712</v>
       </c>
       <c r="L62" t="n">
-        <v>0.001560065729382883</v>
+        <v>0.002321887274081168</v>
       </c>
       <c r="M62" t="n">
-        <v>-2.127699153782725e-05</v>
+        <v>-3.046662646784731e-05</v>
       </c>
       <c r="N62" t="n">
-        <v>-4.964890597627481e-05</v>
+        <v>-1.979825406190477e-05</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0005379342982327918</v>
+        <v>0.0005862111075244579</v>
       </c>
       <c r="P62" t="n">
-        <v>0.000263833551413954</v>
+        <v>0.000462267333667332</v>
       </c>
       <c r="Q62" t="n">
-        <v>7330.078490581338</v>
+        <v>7313.099133273324</v>
       </c>
       <c r="R62" t="n">
-        <v>0.46402</v>
+        <v>0.45264</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9996819169899365</v>
+        <v>0.9996822550177097</v>
       </c>
       <c r="B63" t="n">
-        <v>63.49337601431758</v>
+        <v>63.49344558760144</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.769568753455034e-05</v>
+        <v>2.028019527370605e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06205038205513077</v>
+        <v>0.06204359319484267</v>
       </c>
       <c r="E63" t="n">
-        <v>4.45637649250021e-06</v>
+        <v>-6.325989985748019e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005156430326221398</v>
+        <v>0.00515649652555237</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.866465991011696e-06</v>
+        <v>2.901273197841125e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>0.001818937862013069</v>
+        <v>-0.000230258899936283</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3305724685007152</v>
+        <v>0.3305633861809186</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.0006648542473552783</v>
+        <v>-0.0002672017516538294</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.004781561040210391</v>
+        <v>-0.004846527267105188</v>
       </c>
       <c r="L63" t="n">
-        <v>0.001584108203218424</v>
+        <v>0.001560065729382883</v>
       </c>
       <c r="M63" t="n">
-        <v>3.323250464559789e-06</v>
+        <v>-2.127699153782725e-05</v>
       </c>
       <c r="N63" t="n">
-        <v>-4.457910182851357e-05</v>
+        <v>-4.964890597627481e-05</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0005379692068958331</v>
+        <v>0.0005379342982327918</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0004941641096412095</v>
+        <v>0.000263833551413954</v>
       </c>
       <c r="Q63" t="n">
-        <v>7330.067421733872</v>
+        <v>7330.078490581338</v>
       </c>
       <c r="R63" t="n">
-        <v>0.46403</v>
+        <v>0.46402</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9997397789171868</v>
+        <v>0.9996819169899365</v>
       </c>
       <c r="B64" t="n">
-        <v>63.7668967972864</v>
+        <v>63.49337601431758</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.844828497516628e-05</v>
+        <v>-1.769568753455034e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.06505306732872648</v>
+        <v>0.06205038205513077</v>
       </c>
       <c r="E64" t="n">
-        <v>3.867724360327679e-06</v>
+        <v>4.45637649250021e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005096840410861865</v>
+        <v>0.005156430326221398</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.412379257804011e-06</v>
+        <v>-2.866465991011696e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001695383272443387</v>
+        <v>0.001818937862013069</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3282460149547423</v>
+        <v>0.3305724685007152</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.0006111424733588573</v>
+        <v>-0.0006648542473552783</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.004731214573827327</v>
+        <v>-0.004781561040210391</v>
       </c>
       <c r="L64" t="n">
-        <v>0.001695574011970971</v>
+        <v>0.001584108203218424</v>
       </c>
       <c r="M64" t="n">
-        <v>4.365054341582804e-05</v>
+        <v>3.323250464559789e-06</v>
       </c>
       <c r="N64" t="n">
-        <v>-5.680203212896425e-05</v>
+        <v>-4.457910182851357e-05</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0005356188934290848</v>
+        <v>0.0005379692068958331</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0005459582892016941</v>
+        <v>0.0004941641096412095</v>
       </c>
       <c r="Q64" t="n">
-        <v>7346.774778504647</v>
+        <v>7330.067421733872</v>
       </c>
       <c r="R64" t="n">
-        <v>0.4754100000000001</v>
+        <v>0.46403</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9997975104064765</v>
+        <v>0.9997397789171868</v>
       </c>
       <c r="B65" t="n">
-        <v>64.03571533516987</v>
+        <v>63.7668967972864</v>
       </c>
       <c r="C65" t="n">
-        <v>1.114238908940238e-06</v>
+        <v>-1.844828497516628e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06546922319251701</v>
+        <v>0.06505306732872648</v>
       </c>
       <c r="E65" t="n">
-        <v>3.689660442308517e-06</v>
+        <v>3.867724360327679e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005033853727778714</v>
+        <v>0.005096840410861865</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.442015720984987e-06</v>
+        <v>-2.412379257804011e-06</v>
       </c>
       <c r="H65" t="n">
-        <v>0.001606163687260589</v>
+        <v>0.001695383272443387</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3256277849740447</v>
+        <v>0.3282460149547423</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.0005249290477178835</v>
+        <v>-0.0006111424733588573</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.004675923320649913</v>
+        <v>-0.004731214573827327</v>
       </c>
       <c r="L65" t="n">
-        <v>0.001673867815566953</v>
+        <v>0.001695574011970971</v>
       </c>
       <c r="M65" t="n">
-        <v>8.630364190124997e-05</v>
+        <v>4.365054341582804e-05</v>
       </c>
       <c r="N65" t="n">
-        <v>-6.413433019729387e-05</v>
+        <v>-5.680203212896425e-05</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0004499077452107719</v>
+        <v>0.0005356188934290848</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0005274303240512392</v>
+        <v>0.0005459582892016941</v>
       </c>
       <c r="Q65" t="n">
-        <v>7363.24999185182</v>
+        <v>7346.774778504647</v>
       </c>
       <c r="R65" t="n">
-        <v>0.4868</v>
+        <v>0.4754100000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9998523621184011</v>
+        <v>0.9997975104064765</v>
       </c>
       <c r="B66" t="n">
-        <v>64.29965004403965</v>
+        <v>64.03571533516987</v>
       </c>
       <c r="C66" t="n">
-        <v>2.136490344813987e-05</v>
+        <v>1.114238908940238e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06357423527253613</v>
+        <v>0.06546922319251701</v>
       </c>
       <c r="E66" t="n">
-        <v>3.542493774272106e-06</v>
+        <v>3.689660442308517e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>0.004926384493843817</v>
+        <v>0.005033853727778714</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.993441216391287e-07</v>
+        <v>-1.442015720984987e-06</v>
       </c>
       <c r="H66" t="n">
-        <v>0.001554018980430041</v>
+        <v>0.001606163687260589</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3201837648095052</v>
+        <v>0.3256277849740447</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.0004484094013006124</v>
+        <v>-0.0005249290477178835</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.004605740661887894</v>
+        <v>-0.004675923320649913</v>
       </c>
       <c r="L66" t="n">
-        <v>0.002392774753911761</v>
+        <v>0.001673867815566953</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0001169364303513765</v>
+        <v>8.630364190124997e-05</v>
       </c>
       <c r="N66" t="n">
-        <v>-6.448962789615078e-05</v>
+        <v>-6.413433019729387e-05</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0002597033712867211</v>
+        <v>0.0004499077452107719</v>
       </c>
       <c r="P66" t="n">
-        <v>0.000531371900675207</v>
+        <v>0.0005274303240512392</v>
       </c>
       <c r="Q66" t="n">
-        <v>7379.488170339674</v>
+        <v>7363.24999185182</v>
       </c>
       <c r="R66" t="n">
-        <v>0.49818</v>
+        <v>0.4868</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9999128236127508</v>
+        <v>0.9998523621184011</v>
       </c>
       <c r="B67" t="n">
-        <v>64.56778673563088</v>
+        <v>64.29965004403965</v>
       </c>
       <c r="C67" t="n">
-        <v>2.736492093476278e-05</v>
+        <v>2.136490344813987e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06035459883661473</v>
+        <v>0.06357423527253613</v>
       </c>
       <c r="E67" t="n">
-        <v>3.351642963834036e-06</v>
+        <v>3.542493774272106e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004812134150784281</v>
+        <v>0.004926384493843817</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.498119908921701e-08</v>
+        <v>-5.993441216391287e-07</v>
       </c>
       <c r="H67" t="n">
-        <v>0.001484808968360172</v>
+        <v>0.001554018980430041</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3139356932966023</v>
+        <v>0.3201837648095052</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.0003791302446316969</v>
+        <v>-0.0004484094013006124</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.004531413382807668</v>
+        <v>-0.004605740661887894</v>
       </c>
       <c r="L67" t="n">
-        <v>0.001748981964094154</v>
+        <v>0.002392774753911761</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0001174533330522603</v>
+        <v>0.0001169364303513765</v>
       </c>
       <c r="N67" t="n">
-        <v>-5.646460772147074e-05</v>
+        <v>-6.448962789615078e-05</v>
       </c>
       <c r="O67" t="n">
-        <v>0.000143125101259759</v>
+        <v>0.0002597033712867211</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0004988961213531792</v>
+        <v>0.000531371900675207</v>
       </c>
       <c r="Q67" t="n">
-        <v>7396.016002275792</v>
+        <v>7379.488170339674</v>
       </c>
       <c r="R67" t="n">
-        <v>0.51002</v>
+        <v>0.49818</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9999673781076065</v>
+        <v>0.9999128236127508</v>
       </c>
       <c r="B68" t="n">
-        <v>64.8284644965424</v>
+        <v>64.56778673563088</v>
       </c>
       <c r="C68" t="n">
-        <v>1.562092205393436e-05</v>
+        <v>2.736492093476278e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0.05744487773307651</v>
+        <v>0.06035459883661473</v>
       </c>
       <c r="E68" t="n">
-        <v>3.179325656956883e-06</v>
+        <v>3.351642963834036e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>0.004712244736043178</v>
+        <v>0.004812134150784281</v>
       </c>
       <c r="G68" t="n">
-        <v>8.219486247866507e-08</v>
+        <v>-3.498119908921701e-08</v>
       </c>
       <c r="H68" t="n">
-        <v>0.001448659859835632</v>
+        <v>0.001484808968360172</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3085469764809505</v>
+        <v>0.3139356932966023</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.0003228834864711305</v>
+        <v>-0.0003791302446316969</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.004454506549352522</v>
+        <v>-0.004531413382807668</v>
       </c>
       <c r="L68" t="n">
-        <v>0.001875941400897483</v>
+        <v>0.001748981964094154</v>
       </c>
       <c r="M68" t="n">
-        <v>9.841711805617584e-05</v>
+        <v>0.0001174533330522603</v>
       </c>
       <c r="N68" t="n">
-        <v>-3.826449720391672e-05</v>
+        <v>-5.646460772147074e-05</v>
       </c>
       <c r="O68" t="n">
-        <v>0.00022778414307892</v>
+        <v>0.000143125101259759</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0005096694801597204</v>
+        <v>0.0004988961213531792</v>
       </c>
       <c r="Q68" t="n">
-        <v>7412.159929405971</v>
+        <v>7396.016002275792</v>
       </c>
       <c r="R68" t="n">
-        <v>0.52186</v>
+        <v>0.51002</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.000023825198178</v>
+        <v>0.9999673781076065</v>
       </c>
       <c r="B69" t="n">
-        <v>65.08168505087986</v>
+        <v>64.8284644965424</v>
       </c>
       <c r="C69" t="n">
-        <v>2.405269512189625e-06</v>
+        <v>1.562092205393436e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.05522242431190683</v>
+        <v>0.05744487773307651</v>
       </c>
       <c r="E69" t="n">
-        <v>3.057977089635216e-06</v>
+        <v>3.179325656956883e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>0.004606348653061225</v>
+        <v>0.004712244736043178</v>
       </c>
       <c r="G69" t="n">
-        <v>1.348144993381616e-07</v>
+        <v>8.219486247866507e-08</v>
       </c>
       <c r="H69" t="n">
-        <v>0.001380258291911734</v>
+        <v>0.001448659859835632</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3027497323888232</v>
+        <v>0.3085469764809505</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.0002681698971533518</v>
+        <v>-0.0003228834864711305</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.004383642255579918</v>
+        <v>-0.004454506549352522</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001891297080761638</v>
+        <v>0.001875941400897483</v>
       </c>
       <c r="M69" t="n">
-        <v>6.866353400228444e-05</v>
+        <v>9.841711805617584e-05</v>
       </c>
       <c r="N69" t="n">
-        <v>-1.677325476327467e-05</v>
+        <v>-3.826449720391672e-05</v>
       </c>
       <c r="O69" t="n">
-        <v>0.0004019967117614064</v>
+        <v>0.00022778414307892</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0004753664943280373</v>
+        <v>0.0005096694801597204</v>
       </c>
       <c r="Q69" t="n">
-        <v>7427.887154981016</v>
+        <v>7412.159929405971</v>
       </c>
       <c r="R69" t="n">
-        <v>0.53369</v>
+        <v>0.52186</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.000075916950582</v>
+        <v>1.000023825198178</v>
       </c>
       <c r="B70" t="n">
-        <v>65.32801529206724</v>
+        <v>65.08168505087986</v>
       </c>
       <c r="C70" t="n">
-        <v>-8.850603857872444e-06</v>
+        <v>2.405269512189625e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05348220362149272</v>
+        <v>0.05522242431190683</v>
       </c>
       <c r="E70" t="n">
-        <v>2.951338151532902e-06</v>
+        <v>3.057977089635216e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>0.004469253224827121</v>
+        <v>0.004606348653061225</v>
       </c>
       <c r="G70" t="n">
-        <v>2.195589583663402e-07</v>
+        <v>1.348144993381616e-07</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001329636613623448</v>
+        <v>0.001380258291911734</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2950632609958584</v>
+        <v>0.3027497323888232</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.0002295561030006559</v>
+        <v>-0.0002681698971533518</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.00429758388429752</v>
+        <v>-0.004383642255579918</v>
       </c>
       <c r="L70" t="n">
-        <v>0.002477401232746554</v>
+        <v>0.001891297080761638</v>
       </c>
       <c r="M70" t="n">
-        <v>3.695723844072075e-05</v>
+        <v>6.866353400228444e-05</v>
       </c>
       <c r="N70" t="n">
-        <v>-3.547674540979363e-06</v>
+        <v>-1.677325476327467e-05</v>
       </c>
       <c r="O70" t="n">
-        <v>0.0005773020320644248</v>
+        <v>0.0004019967117614064</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0004803952529809149</v>
+        <v>0.0004753664943280373</v>
       </c>
       <c r="Q70" t="n">
-        <v>7443.250477625455</v>
+        <v>7427.887154981016</v>
       </c>
       <c r="R70" t="n">
-        <v>0.5455300000000001</v>
+        <v>0.53369</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.000131302614269</v>
+        <v>1.000075916950582</v>
       </c>
       <c r="B71" t="n">
-        <v>65.5757283784037</v>
+        <v>65.32801529206724</v>
       </c>
       <c r="C71" t="n">
-        <v>-9.981487734488525e-06</v>
+        <v>-8.850603857872444e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05166589088021963</v>
+        <v>0.05348220362149272</v>
       </c>
       <c r="E71" t="n">
-        <v>2.76746802075561e-06</v>
+        <v>2.951338151532902e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004289458038117727</v>
+        <v>0.004469253224827121</v>
       </c>
       <c r="G71" t="n">
-        <v>1.153136447353714e-07</v>
+        <v>2.195589583663402e-07</v>
       </c>
       <c r="H71" t="n">
-        <v>0.001248596494244194</v>
+        <v>0.001329636613623448</v>
       </c>
       <c r="I71" t="n">
-        <v>0.283972166750998</v>
+        <v>0.2950632609958584</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.0002109691838411578</v>
+        <v>-0.0002295561030006559</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.00420299658214801</v>
+        <v>-0.00429758388429752</v>
       </c>
       <c r="L71" t="n">
-        <v>0.001923242355302603</v>
+        <v>0.002477401232746554</v>
       </c>
       <c r="M71" t="n">
-        <v>-7.365920089533553e-06</v>
+        <v>3.695723844072075e-05</v>
       </c>
       <c r="N71" t="n">
-        <v>-1.268315397563758e-06</v>
+        <v>-3.547674540979363e-06</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0008177187272916436</v>
+        <v>0.0005773020320644248</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0004775324322451042</v>
+        <v>0.0004803952529809149</v>
       </c>
       <c r="Q71" t="n">
-        <v>7458.730051766526</v>
+        <v>7443.250477625455</v>
       </c>
       <c r="R71" t="n">
-        <v>0.5578</v>
+        <v>0.5455300000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.000181747883286</v>
+        <v>1.000131302614269</v>
       </c>
       <c r="B72" t="n">
-        <v>65.81542909615638</v>
+        <v>65.5757283784037</v>
       </c>
       <c r="C72" t="n">
-        <v>-5.606044051274183e-06</v>
+        <v>-9.981487734488525e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04909511763767253</v>
+        <v>0.05166589088021963</v>
       </c>
       <c r="E72" t="n">
-        <v>2.619691347187923e-06</v>
+        <v>2.76746802075561e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>0.004149146836228707</v>
+        <v>0.004289458038117727</v>
       </c>
       <c r="G72" t="n">
-        <v>1.835062835796909e-07</v>
+        <v>1.153136447353714e-07</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001197842293383835</v>
+        <v>0.001248596494244194</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2755452718652199</v>
+        <v>0.283972166750998</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.00019293845271303</v>
+        <v>-0.0002109691838411578</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.004114632556736194</v>
+        <v>-0.00420299658214801</v>
       </c>
       <c r="L72" t="n">
-        <v>0.002023056409115526</v>
+        <v>0.001923242355302603</v>
       </c>
       <c r="M72" t="n">
-        <v>-5.141626259768745e-05</v>
+        <v>-7.365920089533553e-06</v>
       </c>
       <c r="N72" t="n">
-        <v>-2.156950067680136e-06</v>
+        <v>-1.268315397563758e-06</v>
       </c>
       <c r="O72" t="n">
-        <v>0.0009315724149700418</v>
+        <v>0.0008177187272916436</v>
       </c>
       <c r="P72" t="n">
-        <v>0.0005322673197940191</v>
+        <v>0.0004775324322451042</v>
       </c>
       <c r="Q72" t="n">
-        <v>7473.760700470225</v>
+        <v>7458.730051766526</v>
       </c>
       <c r="R72" t="n">
-        <v>0.57006</v>
+        <v>0.5578</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.000232815584415</v>
+        <v>1.000181747883286</v>
       </c>
       <c r="B73" t="n">
-        <v>66.04789186859315</v>
+        <v>65.81542909615638</v>
       </c>
       <c r="C73" t="n">
-        <v>1.150747313918475e-05</v>
+        <v>-5.606044051274183e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04496987813602968</v>
+        <v>0.04909511763767253</v>
       </c>
       <c r="E73" t="n">
-        <v>2.505416307680486e-06</v>
+        <v>2.619691347187923e-06</v>
       </c>
       <c r="F73" t="n">
-        <v>0.004045870283690335</v>
+        <v>0.004149146836228707</v>
       </c>
       <c r="G73" t="n">
-        <v>1.02455918722483e-06</v>
+        <v>1.835062835796909e-07</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001114092625901621</v>
+        <v>0.001197842293383835</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2694788443619872</v>
+        <v>0.2755452718652199</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.0001353027712561609</v>
+        <v>-0.00019293845271303</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.004065438191937933</v>
+        <v>-0.004114632556736194</v>
       </c>
       <c r="L73" t="n">
-        <v>0.002017838447726242</v>
+        <v>0.002023056409115526</v>
       </c>
       <c r="M73" t="n">
-        <v>-9.113611683433366e-05</v>
+        <v>-5.141626259768745e-05</v>
       </c>
       <c r="N73" t="n">
-        <v>-6.384969360053215e-06</v>
+        <v>-2.156950067680136e-06</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0009048329085255524</v>
+        <v>0.0009315724149700418</v>
       </c>
       <c r="P73" t="n">
-        <v>0.0005474004988229119</v>
+        <v>0.0005322673197940191</v>
       </c>
       <c r="Q73" t="n">
-        <v>7488.373050378875</v>
+        <v>7473.760700470225</v>
       </c>
       <c r="R73" t="n">
-        <v>0.5823199999999999</v>
+        <v>0.57006</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.000281015348288</v>
+        <v>1.000232815584415</v>
       </c>
       <c r="B74" t="n">
-        <v>66.27449759187422</v>
+        <v>66.04789186859315</v>
       </c>
       <c r="C74" t="n">
-        <v>2.130839515976095e-05</v>
+        <v>1.150747313918475e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03867691342805288</v>
+        <v>0.04496987813602968</v>
       </c>
       <c r="E74" t="n">
-        <v>2.442744935468713e-06</v>
+        <v>2.505416307680486e-06</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003976813412852082</v>
+        <v>0.004045870283690335</v>
       </c>
       <c r="G74" t="n">
-        <v>1.334302370949602e-06</v>
+        <v>1.02455918722483e-06</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0010526459957721</v>
+        <v>0.001114092625901621</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2656989944528776</v>
+        <v>0.2694788443619872</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.0001145019799967954</v>
+        <v>-0.0001353027712561609</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.004033205430370495</v>
+        <v>-0.004065438191937933</v>
       </c>
       <c r="L74" t="n">
-        <v>0.002567881287785408</v>
+        <v>0.002017838447726242</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.0001206078278311313</v>
+        <v>-9.113611683433366e-05</v>
       </c>
       <c r="N74" t="n">
-        <v>-1.202219271940725e-05</v>
+        <v>-6.384969360053215e-06</v>
       </c>
       <c r="O74" t="n">
-        <v>0.0007745175927111392</v>
+        <v>0.0009048329085255524</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0006025228266263283</v>
+        <v>0.0005474004988229119</v>
       </c>
       <c r="Q74" t="n">
-        <v>7502.65883573504</v>
+        <v>7488.373050378875</v>
       </c>
       <c r="R74" t="n">
-        <v>0.59459</v>
+        <v>0.5823199999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.00033281969978</v>
+        <v>1.000281015348288</v>
       </c>
       <c r="B75" t="n">
-        <v>66.50267873540602</v>
+        <v>66.27449759187422</v>
       </c>
       <c r="C75" t="n">
-        <v>9.133731344615035e-06</v>
+        <v>2.130839515976095e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02879624375327187</v>
+        <v>0.03867691342805288</v>
       </c>
       <c r="E75" t="n">
-        <v>2.288173422737662e-06</v>
+        <v>2.442744935468713e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003907208669252825</v>
+        <v>0.003976813412852082</v>
       </c>
       <c r="G75" t="n">
-        <v>1.198704089509875e-06</v>
+        <v>1.334302370949602e-06</v>
       </c>
       <c r="H75" t="n">
-        <v>0.000958740143023369</v>
+        <v>0.0010526459957721</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2617210994921385</v>
+        <v>0.2656989944528776</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.0001161184076317912</v>
+        <v>-0.0001145019799967954</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.003995650148610408</v>
+        <v>-0.004033205430370495</v>
       </c>
       <c r="L75" t="n">
-        <v>0.002014170450999258</v>
+        <v>0.002567881287785408</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.0001217570737801016</v>
+        <v>-0.0001206078278311313</v>
       </c>
       <c r="N75" t="n">
-        <v>-2.735716645424673e-05</v>
+        <v>-1.202219271940725e-05</v>
       </c>
       <c r="O75" t="n">
-        <v>0.0007839237971186635</v>
+        <v>0.0007745175927111392</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0006389942400661869</v>
+        <v>0.0006025228266263283</v>
       </c>
       <c r="Q75" t="n">
-        <v>7517.058216841175</v>
+        <v>7502.65883573504</v>
       </c>
       <c r="R75" t="n">
-        <v>0.60724</v>
+        <v>0.59459</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.000380775847529</v>
+        <v>1.00033281969978</v>
       </c>
       <c r="B76" t="n">
-        <v>66.72566762242086</v>
+        <v>66.50267873540602</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.860505809487027e-06</v>
+        <v>9.133731344615035e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01450059957043612</v>
+        <v>0.02879624375327187</v>
       </c>
       <c r="E76" t="n">
-        <v>2.166801626585461e-06</v>
+        <v>2.288173422737662e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>0.003856895852926294</v>
+        <v>0.003907208669252825</v>
       </c>
       <c r="G76" t="n">
-        <v>8.331585116862841e-07</v>
+        <v>1.198704089509875e-06</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0008976284020405764</v>
+        <v>0.000958740143023369</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2591768144150222</v>
+        <v>0.2617210994921385</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.0001371350041035216</v>
+        <v>-0.0001161184076317912</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.003941576118513521</v>
+        <v>-0.003995650148610408</v>
       </c>
       <c r="L76" t="n">
-        <v>0.00209160286471869</v>
+        <v>0.002014170450999258</v>
       </c>
       <c r="M76" t="n">
-        <v>-8.964341793876799e-05</v>
+        <v>-0.0001217570737801016</v>
       </c>
       <c r="N76" t="n">
-        <v>-4.608704690747174e-05</v>
+        <v>-2.735716645424673e-05</v>
       </c>
       <c r="O76" t="n">
-        <v>0.0007663934624429486</v>
+        <v>0.0007839237971186635</v>
       </c>
       <c r="P76" t="n">
-        <v>0.000717321945236652</v>
+        <v>0.0006389942400661869</v>
       </c>
       <c r="Q76" t="n">
-        <v>7531.18513455533</v>
+        <v>7517.058216841175</v>
       </c>
       <c r="R76" t="n">
-        <v>0.6199</v>
+        <v>0.60724</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.000432092258391</v>
+        <v>1.000380775847529</v>
       </c>
       <c r="B77" t="n">
-        <v>66.94346151683814</v>
+        <v>66.72566762242086</v>
       </c>
       <c r="C77" t="n">
-        <v>9.6217134236597e-06</v>
+        <v>-1.860505809487027e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.004370935807127401</v>
+        <v>0.01450059957043612</v>
       </c>
       <c r="E77" t="n">
-        <v>3.197316455502614e-06</v>
+        <v>2.166801626585461e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003807846027997976</v>
+        <v>0.003856895852926294</v>
       </c>
       <c r="G77" t="n">
-        <v>1.238336157024798e-06</v>
+        <v>8.331585116862841e-07</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0002030056098962725</v>
+        <v>0.0008976284020405764</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2567513235321677</v>
+        <v>0.2591768144150222</v>
       </c>
       <c r="J77" t="n">
-        <v>-9.624401766505516e-05</v>
+        <v>-0.0001371350041035216</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.003945933048012593</v>
+        <v>-0.003941576118513521</v>
       </c>
       <c r="L77" t="n">
-        <v>0.002049335075809346</v>
+        <v>0.00209160286471869</v>
       </c>
       <c r="M77" t="n">
-        <v>-3.093227553503495e-05</v>
+        <v>-8.964341793876799e-05</v>
       </c>
       <c r="N77" t="n">
-        <v>-7.542990120757668e-05</v>
+        <v>-4.608704690747174e-05</v>
       </c>
       <c r="O77" t="n">
-        <v>0.0006513093830136243</v>
+        <v>0.0007663934624429486</v>
       </c>
       <c r="P77" t="n">
-        <v>0.0007319470738897791</v>
+        <v>0.000717321945236652</v>
       </c>
       <c r="Q77" t="n">
-        <v>7545.003220772465</v>
+        <v>7531.18513455533</v>
       </c>
       <c r="R77" t="n">
-        <v>0.6325499999999999</v>
+        <v>0.6199</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.000432238633352</v>
+        <v>1.000432092258391</v>
       </c>
       <c r="B78" t="n">
-        <v>66.94347026230143</v>
+        <v>66.94346151683814</v>
       </c>
       <c r="C78" t="n">
-        <v>1.181998664799553e-05</v>
+        <v>9.6217134236597e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.004379792531406922</v>
+        <v>-0.004370935807127401</v>
       </c>
       <c r="E78" t="n">
-        <v>1.835892810116779e-06</v>
+        <v>3.197316455502614e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003807607702254456</v>
+        <v>0.003807846027997976</v>
       </c>
       <c r="G78" t="n">
-        <v>3.570285822004876e-07</v>
+        <v>1.238336157024798e-06</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0009267842929146132</v>
+        <v>0.0002030056098962725</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2567538567493113</v>
+        <v>0.2567513235321677</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.0001555971766016916</v>
+        <v>-9.624401766505516e-05</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.003844655842817254</v>
+        <v>-0.003945933048012593</v>
       </c>
       <c r="L78" t="n">
-        <v>0.002083945109521815</v>
+        <v>0.002049335075809346</v>
       </c>
       <c r="M78" t="n">
-        <v>-3.079423874046588e-05</v>
+        <v>-3.093227553503495e-05</v>
       </c>
       <c r="N78" t="n">
-        <v>-6.537895596940337e-05</v>
+        <v>-7.542990120757668e-05</v>
       </c>
       <c r="O78" t="n">
-        <v>0.000654265324625065</v>
+        <v>0.0006513093830136243</v>
       </c>
       <c r="P78" t="n">
-        <v>0.0007442566732580733</v>
+        <v>0.0007319470738897791</v>
       </c>
       <c r="Q78" t="n">
-        <v>7545.010423786259</v>
+        <v>7545.003220772465</v>
       </c>
       <c r="R78" t="n">
-        <v>0.63256</v>
+        <v>0.6325499999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.000475561814808</v>
+        <v>1.000432238633352</v>
       </c>
       <c r="B79" t="n">
-        <v>67.15543989055675</v>
+        <v>66.94347026230143</v>
       </c>
       <c r="C79" t="n">
-        <v>2.161404150784324e-05</v>
+        <v>1.181998664799553e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.02669425216874346</v>
+        <v>-0.004379792531406922</v>
       </c>
       <c r="E79" t="n">
-        <v>2.016208428797403e-06</v>
+        <v>1.835892810116779e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>0.003733575765221792</v>
+        <v>0.003807607702254456</v>
       </c>
       <c r="G79" t="n">
-        <v>1.948326744186213e-07</v>
+        <v>3.570285822004876e-07</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0007454938792590327</v>
+        <v>0.0009267842929146132</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2525275977961433</v>
+        <v>0.2567538567493113</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.0001376325485052569</v>
+        <v>-0.0001555971766016916</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.003754254204006671</v>
+        <v>-0.003844655842817254</v>
       </c>
       <c r="L79" t="n">
-        <v>0.002525042828876146</v>
+        <v>0.002083945109521815</v>
       </c>
       <c r="M79" t="n">
-        <v>4.369077285959971e-05</v>
+        <v>-3.079423874046588e-05</v>
       </c>
       <c r="N79" t="n">
-        <v>-8.083023499204419e-05</v>
+        <v>-6.537895596940337e-05</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0004022219623265474</v>
+        <v>0.000654265324625065</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0007715843535225044</v>
+        <v>0.0007442566732580733</v>
       </c>
       <c r="Q79" t="n">
-        <v>7558.537407480974</v>
+        <v>7545.010423786259</v>
       </c>
       <c r="R79" t="n">
-        <v>0.6452100000000001</v>
+        <v>0.63256</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.000526378141339</v>
+        <v>1.000475561814808</v>
       </c>
       <c r="B80" t="n">
-        <v>67.36649624257416</v>
+        <v>67.15543989055675</v>
       </c>
       <c r="C80" t="n">
-        <v>1.670015242218054e-05</v>
+        <v>2.161404150784324e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.05206651443428919</v>
+        <v>-0.02669425216874346</v>
       </c>
       <c r="E80" t="n">
-        <v>1.886783522937156e-06</v>
+        <v>2.016208428797403e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003627931618822736</v>
+        <v>0.003733575765221792</v>
       </c>
       <c r="G80" t="n">
-        <v>5.496298991398205e-07</v>
+        <v>1.948326744186213e-07</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0006570615054658309</v>
+        <v>0.0007454938792590327</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2459250536908978</v>
+        <v>0.2525275977961433</v>
       </c>
       <c r="J80" t="n">
-        <v>-6.783199977923948e-05</v>
+        <v>-0.0001376325485052569</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.003635735449860386</v>
+        <v>-0.003754254204006671</v>
       </c>
       <c r="L80" t="n">
-        <v>0.002152309759803433</v>
+        <v>0.002525042828876146</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0001218206420169974</v>
+        <v>4.369077285959971e-05</v>
       </c>
       <c r="N80" t="n">
-        <v>-8.870540037972678e-05</v>
+        <v>-8.083023499204419e-05</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0002650152848321584</v>
+        <v>0.0004022219623265474</v>
       </c>
       <c r="P80" t="n">
-        <v>0.000754185524045659</v>
+        <v>0.0007715843535225044</v>
       </c>
       <c r="Q80" t="n">
-        <v>7572.007016773127</v>
+        <v>7558.537407480974</v>
       </c>
       <c r="R80" t="n">
-        <v>0.65822</v>
+        <v>0.6452100000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.000570988699612</v>
+        <v>1.000526378141339</v>
       </c>
       <c r="B81" t="n">
-        <v>67.57061295702854</v>
+        <v>67.36649624257416</v>
       </c>
       <c r="C81" t="n">
-        <v>1.186830446206021e-05</v>
+        <v>1.670015242218054e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.07925781729360205</v>
+        <v>-0.05206651443428919</v>
       </c>
       <c r="E81" t="n">
-        <v>1.795368021891247e-06</v>
+        <v>1.886783522937156e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003516991490639232</v>
+        <v>0.003627931618822736</v>
       </c>
       <c r="G81" t="n">
-        <v>1.92080267763875e-07</v>
+        <v>5.496298991398205e-07</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0006017539060977458</v>
+        <v>0.0006570615054658309</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2390324275032327</v>
+        <v>0.2459250536908978</v>
       </c>
       <c r="J81" t="n">
-        <v>-4.152933748835312e-05</v>
+        <v>-6.783199977923948e-05</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.003519367309458218</v>
+        <v>-0.003635735449860386</v>
       </c>
       <c r="L81" t="n">
-        <v>0.002253117969183722</v>
+        <v>0.002152309759803433</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0001816624150134233</v>
+        <v>0.0001218206420169974</v>
       </c>
       <c r="N81" t="n">
-        <v>-8.584276074734731e-05</v>
+        <v>-8.870540037972678e-05</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0001597867465167144</v>
+        <v>0.0002650152848321584</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0007633464454175102</v>
+        <v>0.000754185524045659</v>
       </c>
       <c r="Q81" t="n">
-        <v>7585.091864487591</v>
+        <v>7572.007016773127</v>
       </c>
       <c r="R81" t="n">
-        <v>0.67123</v>
+        <v>0.65822</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.000618420644291</v>
+        <v>1.000570988699612</v>
       </c>
       <c r="B82" t="n">
-        <v>67.76816360263112</v>
+        <v>67.57061295702854</v>
       </c>
       <c r="C82" t="n">
-        <v>1.765437717696549e-05</v>
+        <v>1.186830446206021e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1076046298542947</v>
+        <v>-0.07925781729360205</v>
       </c>
       <c r="E82" t="n">
-        <v>1.703303044290639e-06</v>
+        <v>1.795368021891247e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003396686332939788</v>
+        <v>0.003516991490639232</v>
       </c>
       <c r="G82" t="n">
-        <v>7.308184848237491e-08</v>
+        <v>1.92080267763875e-07</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0005335575316291749</v>
+        <v>0.0006017539060977458</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2314981675380896</v>
+        <v>0.2390324275032327</v>
       </c>
       <c r="J82" t="n">
-        <v>-1.948379696145384e-06</v>
+        <v>-4.152933748835312e-05</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.003406607788084931</v>
+        <v>-0.003519367309458218</v>
       </c>
       <c r="L82" t="n">
-        <v>0.002261762912078087</v>
+        <v>0.002253117969183722</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0002282714143206536</v>
+        <v>0.0001816624150134233</v>
       </c>
       <c r="N82" t="n">
-        <v>-7.946699481204627e-05</v>
+        <v>-8.584276074734731e-05</v>
       </c>
       <c r="O82" t="n">
-        <v>1.984951644130544e-05</v>
+        <v>0.0001597867465167144</v>
       </c>
       <c r="P82" t="n">
-        <v>0.0007447515511926687</v>
+        <v>0.0007633464454175102</v>
       </c>
       <c r="Q82" t="n">
-        <v>7597.778895074267</v>
+        <v>7585.091864487591</v>
       </c>
       <c r="R82" t="n">
-        <v>0.68424</v>
+        <v>0.67123</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.000657667397538</v>
+        <v>1.000618420644291</v>
       </c>
       <c r="B83" t="n">
-        <v>67.95957097880471</v>
+        <v>67.76816360263112</v>
       </c>
       <c r="C83" t="n">
-        <v>1.623390547253554e-05</v>
+        <v>1.765437717696549e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1359603189101511</v>
+        <v>-0.1076046298542947</v>
       </c>
       <c r="E83" t="n">
-        <v>1.688744381529634e-06</v>
+        <v>1.703303044290639e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003264419636970821</v>
+        <v>0.003396686332939788</v>
       </c>
       <c r="G83" t="n">
-        <v>8.446988397493665e-07</v>
+        <v>7.308184848237491e-08</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0004978580292476696</v>
+        <v>0.0005335575316291749</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2232261425385581</v>
+        <v>0.2314981675380896</v>
       </c>
       <c r="J83" t="n">
-        <v>9.042412781960573e-05</v>
+        <v>-1.948379696145384e-06</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.003294990130994546</v>
+        <v>-0.003406607788084931</v>
       </c>
       <c r="L83" t="n">
-        <v>0.002653816462400161</v>
+        <v>0.002261762912078087</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0002636752187247317</v>
+        <v>0.0002282714143206536</v>
       </c>
       <c r="N83" t="n">
-        <v>-7.821784031083189e-05</v>
+        <v>-7.946699481204627e-05</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.0002049524389260542</v>
+        <v>1.984951644130544e-05</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0007557268388022805</v>
+        <v>0.0007447515511926687</v>
       </c>
       <c r="Q83" t="n">
-        <v>7610.142524182136</v>
+        <v>7597.778895074267</v>
       </c>
       <c r="R83" t="n">
-        <v>0.69725</v>
+        <v>0.68424</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.000702588632147</v>
+        <v>1.000657667397538</v>
       </c>
       <c r="B84" t="n">
-        <v>68.14875635763946</v>
+        <v>67.95957097880471</v>
       </c>
       <c r="C84" t="n">
-        <v>1.390217081089379e-05</v>
+        <v>1.623390547253554e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.1627966329932647</v>
+        <v>-0.1359603189101511</v>
       </c>
       <c r="E84" t="n">
-        <v>1.582348875987924e-06</v>
+        <v>1.688744381529634e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003116721909934222</v>
+        <v>0.003264419636970821</v>
       </c>
       <c r="G84" t="n">
-        <v>6.828761517031563e-07</v>
+        <v>8.446988397493665e-07</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0004469085884025403</v>
+        <v>0.0004978580292476696</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2136749539551358</v>
+        <v>0.2232261425385581</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0001130293512896684</v>
+        <v>9.042412781960573e-05</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.00318172026311351</v>
+        <v>-0.003294990130994546</v>
       </c>
       <c r="L84" t="n">
-        <v>0.002288408291041843</v>
+        <v>0.002653816462400161</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0002977875894073413</v>
+        <v>0.0002636752187247317</v>
       </c>
       <c r="N84" t="n">
-        <v>-8.771089235153389e-05</v>
+        <v>-7.821784031083189e-05</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.0003578166342716281</v>
+        <v>-0.0002049524389260542</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0007524065024229945</v>
+        <v>0.0007557268388022805</v>
       </c>
       <c r="Q84" t="n">
-        <v>7622.360482429131</v>
+        <v>7610.142524182136</v>
       </c>
       <c r="R84" t="n">
-        <v>0.71057</v>
+        <v>0.69725</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.00074452555237</v>
+        <v>1.000702588632147</v>
       </c>
       <c r="B85" t="n">
-        <v>68.33066355578045</v>
+        <v>68.14875635763946</v>
       </c>
       <c r="C85" t="n">
-        <v>1.488397197841079e-05</v>
+        <v>1.390217081089379e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1854335359105344</v>
+        <v>-0.1627966329932647</v>
       </c>
       <c r="E85" t="n">
-        <v>1.498490049758921e-06</v>
+        <v>1.582348875987924e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002972763352335976</v>
+        <v>0.003116721909934222</v>
       </c>
       <c r="G85" t="n">
-        <v>4.557486056022987e-07</v>
+        <v>6.828761517031563e-07</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0004210136431041773</v>
+        <v>0.0004469085884025403</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2042776447967617</v>
+        <v>0.2136749539551358</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0001258291293851689</v>
+        <v>0.0001130293512896684</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.003071209079290118</v>
+        <v>-0.00318172026311351</v>
       </c>
       <c r="L85" t="n">
-        <v>0.002355285805218493</v>
+        <v>0.002288408291041843</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0003344353075010865</v>
+        <v>0.0002977875894073413</v>
       </c>
       <c r="N85" t="n">
-        <v>-9.917969127459228e-05</v>
+        <v>-8.771089235153389e-05</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.000590328810761991</v>
+        <v>-0.0003578166342716281</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0007759940769082065</v>
+        <v>0.0007524065024229945</v>
       </c>
       <c r="Q85" t="n">
-        <v>7634.125779473552</v>
+        <v>7622.360482429131</v>
       </c>
       <c r="R85" t="n">
-        <v>0.7238899999999999</v>
+        <v>0.71057</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.000778629785798</v>
+        <v>1.00074452555237</v>
       </c>
       <c r="B86" t="n">
-        <v>68.50613526733008</v>
+        <v>68.33066355578045</v>
       </c>
       <c r="C86" t="n">
-        <v>1.893844209666052e-05</v>
+        <v>1.488397197841079e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.203716204039452</v>
+        <v>-0.1854335359105344</v>
       </c>
       <c r="E86" t="n">
-        <v>1.424834937200391e-06</v>
+        <v>1.498490049758921e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002832591389441727</v>
+        <v>0.002972763352335976</v>
       </c>
       <c r="G86" t="n">
-        <v>5.980126604034415e-07</v>
+        <v>4.557486056022987e-07</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0003776698491593823</v>
+        <v>0.0004210136431041773</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1950196076160491</v>
+        <v>0.2042776447967617</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0001647863839004144</v>
+        <v>0.0001258291293851689</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.002967404304267161</v>
+        <v>-0.003071209079290118</v>
       </c>
       <c r="L86" t="n">
-        <v>0.002353451712781615</v>
+        <v>0.002355285805218493</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0003780196827566335</v>
+        <v>0.0003344353075010865</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.0001097339076046401</v>
+        <v>-9.917969127459228e-05</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.0007232610615217667</v>
+        <v>-0.000590328810761991</v>
       </c>
       <c r="P86" t="n">
-        <v>0.0007659136778138363</v>
+        <v>0.0007759940769082065</v>
       </c>
       <c r="Q86" t="n">
-        <v>7645.528407747865</v>
+        <v>7634.125779473552</v>
       </c>
       <c r="R86" t="n">
-        <v>0.73721</v>
+        <v>0.7238899999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.000820650362624</v>
+        <v>1.000778629785798</v>
       </c>
       <c r="B87" t="n">
-        <v>68.67592412061244</v>
+        <v>68.50613526733008</v>
       </c>
       <c r="C87" t="n">
-        <v>1.431549415528262e-05</v>
+        <v>1.893844209666052e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.2190299019955867</v>
+        <v>-0.203716204039452</v>
       </c>
       <c r="E87" t="n">
-        <v>1.435105657811654e-06</v>
+        <v>1.424834937200391e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00268956445110474</v>
+        <v>0.002832591389441727</v>
       </c>
       <c r="G87" t="n">
-        <v>5.673600949647472e-07</v>
+        <v>5.980126604034415e-07</v>
       </c>
       <c r="H87" t="n">
-        <v>0.000359091426720601</v>
+        <v>0.0003776698491593823</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1855502254418021</v>
+        <v>0.1950196076160491</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0001950004446743556</v>
+        <v>0.0001647863839004144</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.002863958089897116</v>
+        <v>-0.002967404304267161</v>
       </c>
       <c r="L87" t="n">
-        <v>0.002694118748372129</v>
+        <v>0.002353451712781615</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0004194580556666782</v>
+        <v>0.0003780196827566335</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.000115443580530235</v>
+        <v>-0.0001097339076046401</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.000726762966618006</v>
+        <v>-0.0007232610615217667</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0007704118618523547</v>
+        <v>0.0007659136778138363</v>
       </c>
       <c r="Q87" t="n">
-        <v>7656.535299737739</v>
+        <v>7645.528407747865</v>
       </c>
       <c r="R87" t="n">
-        <v>0.75053</v>
+        <v>0.73721</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.000854030696576</v>
+        <v>1.000820650362624</v>
       </c>
       <c r="B88" t="n">
-        <v>68.84233871179326</v>
+        <v>68.67592412061244</v>
       </c>
       <c r="C88" t="n">
-        <v>3.483327750230372e-06</v>
+        <v>1.431549415528262e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.2334722422556073</v>
+        <v>-0.2190299019955867</v>
       </c>
       <c r="E88" t="n">
-        <v>1.298306909993051e-06</v>
+        <v>1.435105657811654e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>0.002548933654241862</v>
+        <v>0.00268956445110474</v>
       </c>
       <c r="G88" t="n">
-        <v>1.038060519386066e-06</v>
+        <v>5.673600949647472e-07</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0003259980448081932</v>
+        <v>0.000359091426720601</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1760476517681453</v>
+        <v>0.1855502254418021</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0002524870600359058</v>
+        <v>0.0001950004446743556</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.002766745538202056</v>
+        <v>-0.002863958089897116</v>
       </c>
       <c r="L88" t="n">
-        <v>0.002403012868723787</v>
+        <v>0.002694118748372129</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0004520548535275088</v>
+        <v>0.0004194580556666782</v>
       </c>
       <c r="N88" t="n">
-        <v>-0.0001203079081091134</v>
+        <v>-0.000115443580530235</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.0007088815267912903</v>
+        <v>-0.000726762966618006</v>
       </c>
       <c r="P88" t="n">
-        <v>0.0007466812070889382</v>
+        <v>0.0007704118618523547</v>
       </c>
       <c r="Q88" t="n">
-        <v>7667.37258098362</v>
+        <v>7656.535299737739</v>
       </c>
       <c r="R88" t="n">
-        <v>0.7641100000000001</v>
+        <v>0.75053</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.000886221622533</v>
+        <v>1.000854030696576</v>
       </c>
       <c r="B89" t="n">
-        <v>69.00128753209273</v>
+        <v>68.84233871179326</v>
       </c>
       <c r="C89" t="n">
-        <v>3.512803095888702e-07</v>
+        <v>3.483327750230372e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.248721632959979</v>
+        <v>-0.2334722422556073</v>
       </c>
       <c r="E89" t="n">
-        <v>1.238712374483185e-06</v>
+        <v>1.298306909993051e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>0.002421769264496542</v>
+        <v>0.002548933654241862</v>
       </c>
       <c r="G89" t="n">
-        <v>3.045574885727787e-07</v>
+        <v>1.038060519386066e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0003214782800384476</v>
+        <v>0.0003259980448081932</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1674826113865932</v>
+        <v>0.1760476517681453</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0002197946871486664</v>
+        <v>0.0002524870600359058</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.0026749034118551</v>
+        <v>-0.002766745538202056</v>
       </c>
       <c r="L89" t="n">
-        <v>0.002461468228421956</v>
+        <v>0.002403012868723787</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0004625919328030509</v>
+        <v>0.0004520548535275088</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.0001292583782235978</v>
+        <v>-0.0001203079081091134</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.0008110634050733662</v>
+        <v>-0.0007088815267912903</v>
       </c>
       <c r="P89" t="n">
-        <v>0.0007537552330410675</v>
+        <v>0.0007466812070889382</v>
       </c>
       <c r="Q89" t="n">
-        <v>7677.735666783702</v>
+        <v>7667.37258098362</v>
       </c>
       <c r="R89" t="n">
-        <v>0.77769</v>
+        <v>0.7641100000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.000920145049755</v>
+        <v>1.000886221622533</v>
       </c>
       <c r="B90" t="n">
-        <v>69.15226566218774</v>
+        <v>69.00128753209273</v>
       </c>
       <c r="C90" t="n">
-        <v>1.051412989224157e-05</v>
+        <v>3.512803095888702e-07</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.2655316375357065</v>
+        <v>-0.248721632959979</v>
       </c>
       <c r="E90" t="n">
-        <v>1.192736044859207e-06</v>
+        <v>1.238712374483185e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002299087045437679</v>
+        <v>0.002421769264496542</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.928086485525374e-07</v>
+        <v>3.045574885727787e-07</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0003065849740810779</v>
+        <v>0.0003214782800384476</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1592096398455801</v>
+        <v>0.1674826113865932</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0001708556851241167</v>
+        <v>0.0002197946871486664</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.002579379934146662</v>
+        <v>-0.0026749034118551</v>
       </c>
       <c r="L90" t="n">
-        <v>0.002457241339755815</v>
+        <v>0.002461468228421956</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0004594349244067547</v>
+        <v>0.0004625919328030509</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.0001419316938247544</v>
+        <v>-0.0001292583782235978</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.0009556315897845916</v>
+        <v>-0.0008110634050733662</v>
       </c>
       <c r="P90" t="n">
-        <v>0.0007372890517199592</v>
+        <v>0.0007537552330410675</v>
       </c>
       <c r="Q90" t="n">
-        <v>7687.575227820984</v>
+        <v>7677.735666783702</v>
       </c>
       <c r="R90" t="n">
-        <v>0.79127</v>
+        <v>0.77769</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.000950498229044</v>
+        <v>1.000920145049755</v>
       </c>
       <c r="B91" t="n">
-        <v>69.29589698468919</v>
+        <v>69.15226566218774</v>
       </c>
       <c r="C91" t="n">
-        <v>1.783096883004409e-05</v>
+        <v>1.051412989224157e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.2836796042525825</v>
+        <v>-0.2655316375357065</v>
       </c>
       <c r="E91" t="n">
-        <v>1.231694947618847e-06</v>
+        <v>1.192736044859207e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>0.002170485093439028</v>
+        <v>0.002299087045437679</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.348723551341833e-07</v>
+        <v>-5.928086485525374e-07</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0003096832193746126</v>
+        <v>0.0003065849740810779</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1505035172747888</v>
+        <v>0.1592096398455801</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0002059688411163027</v>
+        <v>0.0001708556851241167</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.00247188390563033</v>
+        <v>-0.002579379934146662</v>
       </c>
       <c r="L91" t="n">
-        <v>0.002760402856635062</v>
+        <v>0.002457241339755815</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0004497640544736063</v>
+        <v>0.0004594349244067547</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.0001573777628348695</v>
+        <v>-0.0001419316938247544</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.001031009575797487</v>
+        <v>-0.0009556315897845916</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0007313810599876632</v>
+        <v>0.0007372890517199592</v>
       </c>
       <c r="Q91" t="n">
-        <v>7696.940789939922</v>
+        <v>7687.575227820984</v>
       </c>
       <c r="R91" t="n">
-        <v>0.80485</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1.000979419800978</v>
-      </c>
-      <c r="B92" t="n">
-        <v>69.43501872153819</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.852367846666978e-05</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.3026592877430457</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.117510727076916e-06</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.002027708791338196</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-2.514230064294158e-08</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.0002809562943415792</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.1406410006175671</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.0002256677081688873</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-0.002353202363579505</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.002495591988966653</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.0004356652645751129</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-0.0001679256277113746</v>
-      </c>
-      <c r="O92" t="n">
-        <v>-0.0009732207751805625</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0.0006980443622036727</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>7706.003068640682</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.8186399999999999</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1.001007591836735</v>
-      </c>
-      <c r="B93" t="n">
-        <v>69.56783294915763</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.547225534708687e-05</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-0.3209908747889769</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1.066726211562981e-06</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.001885270337172677</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-4.116289316491864e-07</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.0002733337163776331</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.1308652497603306</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.0002015457295278577</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-0.002236680014672139</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.002582168664189202</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.0004193118183819231</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-0.00017769956504817</v>
-      </c>
-      <c r="O93" t="n">
-        <v>-0.0008567604654412548</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0.0006794153113573001</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>7714.6460318278</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.8324299999999999</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1.001033840445269</v>
-      </c>
-      <c r="B94" t="n">
-        <v>69.6936448717228</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.558186776259903e-05</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-0.3380126143887857</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.036510057579915e-06</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.001745595133399224</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-8.339436213614363e-07</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.0002607477361833923</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.1213293934971383</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.0001682995459421223</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-0.002119767996740128</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.002610783163188584</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.0004014380076597631</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-0.0001798331458258466</v>
-      </c>
-      <c r="O94" t="n">
-        <v>-0.0007442844978051582</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0.0006395023291815371</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>7722.842912468114</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.84621</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1.001056801146905</v>
-      </c>
-      <c r="B95" t="n">
-        <v>69.81083189970202</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.660857023609062e-05</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.3532466401904013</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.095958216736734e-06</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.001609619745554461</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-3.901313387363776e-07</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.0002764809678605667</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.1120679571918299</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.0001962058314501232</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-0.00198902020715129</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.002872274514334196</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.0003782200657177911</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-0.0001715992717349545</v>
-      </c>
-      <c r="O95" t="n">
-        <v>-0.0006723514039075639</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0.0006126272611348085</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>7730.491502616403</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1.001076569404622</v>
-      </c>
-      <c r="B96" t="n">
-        <v>69.91865673431907</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.260992889098743e-05</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-0.3663402966548602</v>
-      </c>
-      <c r="E96" t="n">
-        <v>9.859481905607693e-07</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.001447498425901692</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-2.305032959527686e-07</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.0002767831758482562</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.1008930411987624</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.0002063664217304398</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-0.001840313606036296</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.00265453258088068</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.0003486188085301875</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-0.00015249735578557</v>
-      </c>
-      <c r="O96" t="n">
-        <v>-0.0006456338771759975</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0.0005706729061546523</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>7737.538525643692</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.8739399999999999</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1.001093908584922</v>
-      </c>
-      <c r="B97" t="n">
-        <v>70.01504713180037</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.529498760888837e-05</v>
-      </c>
-      <c r="D97" t="n">
-        <v>-0.376282164464684</v>
-      </c>
-      <c r="E97" t="n">
-        <v>9.355150358146054e-07</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.001281877464931455</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-1.750445107977713e-07</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.0003038637525823916</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.08942679608440469</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.0002066264113342366</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-0.0016800685130072</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.002690160587798876</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.0003110542416005716</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-0.0001313930336902731</v>
-      </c>
-      <c r="O97" t="n">
-        <v>-0.0006362439101406307</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0.0005540994394961046</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>7743.8447591403</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.8878799999999999</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1.001110227019734</v>
-      </c>
-      <c r="B98" t="n">
-        <v>70.09961237607992</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.695381631753365e-05</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-0.3828522077172466</v>
-      </c>
-      <c r="E98" t="n">
-        <v>8.95492336996188e-07</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.001112164361258299</v>
-      </c>
-      <c r="G98" t="n">
-        <v>8.866607502985681e-08</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.0003189059871122056</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.07764870184465957</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.0002081256085099608</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-0.00150509872200363</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.002656195462572477</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.0002665513796543737</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-0.0001104453528701486</v>
-      </c>
-      <c r="O98" t="n">
-        <v>-0.0006026760894133993</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0.0005315414720030097</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>7749.382111111281</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.9018200000000001</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1.001124899983134</v>
-      </c>
-      <c r="B99" t="n">
-        <v>70.17218774010981</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.139614011986455e-05</v>
-      </c>
-      <c r="D99" t="n">
-        <v>-0.3866103389179364</v>
-      </c>
-      <c r="E99" t="n">
-        <v>9.811809632031027e-07</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.0009355192250031394</v>
-      </c>
-      <c r="G99" t="n">
-        <v>4.985467677208294e-07</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.0003527188099995286</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.06533115688104418</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.0002105971245273704</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-0.001314910058722098</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.002821420826568617</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.0002223863431067105</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-9.394890861580781e-05</v>
-      </c>
-      <c r="O99" t="n">
-        <v>-0.000533411893223847</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0.0005246634787241561</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>7754.133759642622</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0.91576</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1.00113653229887</v>
-      </c>
-      <c r="B100" t="n">
-        <v>70.232616555162</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.705229967092265e-05</v>
-      </c>
-      <c r="D100" t="n">
-        <v>-0.3874241817432208</v>
-      </c>
-      <c r="E100" t="n">
-        <v>8.766160062990051e-07</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.0007329845414071662</v>
-      </c>
-      <c r="G100" t="n">
-        <v>5.224764198805857e-07</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.0003577627389235772</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.0511192357043901</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.000179852232260453</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-0.0011196428963972</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.002596506470574689</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.0001842200835315025</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-8.245608873858549e-05</v>
-      </c>
-      <c r="O100" t="n">
-        <v>-0.0004360540254303255</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0.0005081040775463227</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>7758.088702186252</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0.92979</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1.001146487434644</v>
-      </c>
-      <c r="B101" t="n">
-        <v>70.28051427072207</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.677433689443362e-05</v>
-      </c>
-      <c r="D101" t="n">
-        <v>-0.3851879210659471</v>
-      </c>
-      <c r="E101" t="n">
-        <v>8.675025304696913e-07</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.0005395971964393523</v>
-      </c>
-      <c r="G101" t="n">
-        <v>7.194930849586854e-08</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.0003822222863398324</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.03754331220538615</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.0001138777571928</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-0.0009339689256035793</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.002604600745566676</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.000152050022762437</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-7.650541759762109e-05</v>
-      </c>
-      <c r="O101" t="n">
-        <v>-0.000324015414635078</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0.0005125648869041359</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>7761.219486311598</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.9438200000000001</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1.001154969134761</v>
-      </c>
-      <c r="B102" t="n">
-        <v>70.31610329641498</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.972037180375369e-05</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-0.3797965957159724</v>
-      </c>
-      <c r="E102" t="n">
-        <v>8.623391323950752e-07</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.0003567688480960634</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-4.188546769256162e-07</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.0003924739924758045</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.02471849075622353</v>
-      </c>
-      <c r="J102" t="n">
-        <v>4.568672269747543e-05</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-0.0007467200277074244</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.002554928065887446</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.0001201536941294129</v>
-      </c>
-      <c r="N102" t="n">
-        <v>-7.291528778203821e-05</v>
-      </c>
-      <c r="O102" t="n">
-        <v>-0.0002261617298316902</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0.0005053531476635633</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>7763.536917296804</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.95785</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1.001159626243886</v>
-      </c>
-      <c r="B103" t="n">
-        <v>70.33891471299266</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.164589338072586e-05</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-0.3716803012312362</v>
-      </c>
-      <c r="E103" t="n">
-        <v>9.58394119493709e-07</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.0001897359548192737</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-5.300180149522744e-07</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.000426948205007417</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.01302512868156944</v>
-      </c>
-      <c r="J103" t="n">
-        <v>8.34416661495277e-06</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-0.0005458384942216904</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.002716042228941924</v>
-      </c>
-      <c r="M103" t="n">
-        <v>8.27359959329827e-05</v>
-      </c>
-      <c r="N103" t="n">
-        <v>-7.062385854051366e-05</v>
-      </c>
-      <c r="O103" t="n">
-        <v>-0.0001808010569762394</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0.000514168399748035</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>7765.012602540979</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0.97188</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1.001162533310846</v>
-      </c>
-      <c r="B104" t="n">
-        <v>70.34810783156239</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2.347758506774605e-05</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-0.3611039948351792</v>
-      </c>
-      <c r="E104" t="n">
-        <v>8.234650476505312e-07</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2.029509965529027e-05</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-7.274754436518794e-07</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.0004329145746996383</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.001095287463070408</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-2.983435536399237e-05</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-0.0003309953656049449</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.002477302137339031</v>
-      </c>
-      <c r="M104" t="n">
-        <v>4.20202470565098e-05</v>
-      </c>
-      <c r="N104" t="n">
-        <v>-6.671223024322258e-05</v>
-      </c>
-      <c r="O104" t="n">
-        <v>-0.0002332384928063042</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0.0005158634977277412</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>7765.566103657869</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.9859399999999999</v>
+        <v>0.79127</v>
       </c>
     </row>
   </sheetData>
